--- a/HOWFSC_estimates.xlsx
+++ b/HOWFSC_estimates.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
   <si>
     <t>Coronagraph Specifications</t>
   </si>
@@ -21,16 +21,16 @@
     <t>Telescope and Mode</t>
   </si>
   <si>
-    <t>Pupil</t>
+    <t>Channels</t>
   </si>
   <si>
-    <t>Pixel (mm)</t>
+    <t>IWA (L/D)</t>
   </si>
   <si>
-    <t>Pixel (mas)</t>
+    <t>OAW (L/D)</t>
   </si>
   <si>
-    <t>Number of (visible) DM actuators</t>
+    <t>DM actuators on side</t>
   </si>
   <si>
     <t>Pixels across pupil</t>
@@ -39,43 +39,13 @@
     <t>LUVOIR VIS A</t>
   </si>
   <si>
-    <t>mas =</t>
+    <t>L/D per pix</t>
   </si>
   <si>
-    <t>Imager</t>
+    <t>Dark hole area (L/D)^2</t>
   </si>
   <si>
-    <t xml:space="preserve">Critically-sampled at </t>
-  </si>
-  <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>2 pix per L_crit/D</t>
-  </si>
-  <si>
-    <t>= 0.5 L/D per pix</t>
-  </si>
-  <si>
-    <t>1 L_crit/D in radians</t>
-  </si>
-  <si>
-    <t>1 L_crit/D in mas</t>
-  </si>
-  <si>
-    <t>Upper L</t>
-  </si>
-  <si>
-    <t>bandwidth (%)</t>
-  </si>
-  <si>
-    <t>(L/D)^2</t>
-  </si>
-  <si>
-    <t>Channels</t>
-  </si>
-  <si>
-    <t>L/D per pix</t>
+    <t>Visible actuators</t>
   </si>
   <si>
     <t>pixels</t>
@@ -106,6 +76,9 @@
   </si>
   <si>
     <t>model pixels</t>
+  </si>
+  <si>
+    <t>NEM</t>
   </si>
   <si>
     <t>Bytes per float</t>
@@ -141,19 +114,16 @@
     <t>Computer name</t>
   </si>
   <si>
-    <t>BAE RAD750</t>
+    <t>BAE RAD5545</t>
   </si>
   <si>
     <t>Dhrystone Benchmark Estimate</t>
   </si>
   <si>
-    <t>ns/calculation</t>
+    <t>MFLOPS</t>
   </si>
   <si>
     <t>Best Guestimate for Realistic System</t>
-  </si>
-  <si>
-    <t>Overly Conservative Estimate</t>
   </si>
   <si>
     <t>Jacobian Calculation</t>
@@ -192,66 +162,6 @@
     <t>Best Time Estimate (hr)</t>
   </si>
   <si>
-    <t>Max Time Estimate (hr)</t>
-  </si>
-  <si>
-    <t>QR would do 2N^3/3</t>
-  </si>
-  <si>
-    <t>8n^2 log n sourced from Golub and van Loan 2013</t>
-  </si>
-  <si>
-    <t>in 2nd part of equation</t>
-  </si>
-  <si>
-    <t>Directed use of O(N^3) matrix transforms could reduce</t>
-  </si>
-  <si>
-    <t>FFT Array sizes</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Center wavelength</t>
-  </si>
-  <si>
-    <t>pixels on a side</t>
-  </si>
-  <si>
-    <t>Band 1a</t>
-  </si>
-  <si>
-    <t>Band 1, Band 1b</t>
-  </si>
-  <si>
-    <t>Band 1c</t>
-  </si>
-  <si>
-    <t>Band 3a</t>
-  </si>
-  <si>
-    <t>Band 3b</t>
-  </si>
-  <si>
-    <t>Band 3c</t>
-  </si>
-  <si>
-    <t>Band 3d</t>
-  </si>
-  <si>
-    <t>Band 3e</t>
-  </si>
-  <si>
-    <t>Band 4a</t>
-  </si>
-  <si>
-    <t>Band 4, Band 4b</t>
-  </si>
-  <si>
-    <t>Band 4c</t>
-  </si>
-  <si>
     <t>EFC</t>
   </si>
   <si>
@@ -270,6 +180,9 @@
     <t>Solving for controls flops</t>
   </si>
   <si>
+    <t>Multiplying Jacobian transpose by Jacobian</t>
+  </si>
+  <si>
     <t>Precomputing gains flops</t>
   </si>
   <si>
@@ -280,6 +193,9 @@
   </si>
   <si>
     <t>(2*MN + N^3/3)*NEFC</t>
+  </si>
+  <si>
+    <t>M*N^2</t>
   </si>
   <si>
     <t>(2*N^3/3)*NEFCGains</t>
@@ -420,7 +336,7 @@
     <t>Updating Jacobian estimate (flops per probing cycle)</t>
   </si>
   <si>
-    <t>8*M*N*(Nprobe+1)*NEFC</t>
+    <t>8*M*N*(Nprobe+1)*NEM</t>
   </si>
   <si>
     <t>Memory requirements</t>
@@ -435,34 +351,10 @@
     <t>Telescope</t>
   </si>
   <si>
-    <t>IWA (L/D)</t>
-  </si>
-  <si>
-    <t>OAW (L/D)</t>
-  </si>
-  <si>
-    <t>lam center</t>
-  </si>
-  <si>
-    <t>SPC char primary (WFIRST)</t>
+    <t>HLC</t>
   </si>
   <si>
     <t>WFIRST</t>
-  </si>
-  <si>
-    <t>9 = OWA</t>
-  </si>
-  <si>
-    <t>2.5 = physical designed IWA</t>
-  </si>
-  <si>
-    <t>add +1 L/D</t>
-  </si>
-  <si>
-    <t>HLC</t>
-  </si>
-  <si>
-    <t>SPC disk</t>
   </si>
   <si>
     <t>HabEx Channel A</t>
@@ -486,9 +378,6 @@
     <t>LUVOIR B</t>
   </si>
   <si>
-    <t>For bowtie: 65 degrees for each region +5 deg on side as control *2 for two sides</t>
-  </si>
-  <si>
     <t>LUVOIR VIS B</t>
   </si>
   <si>
@@ -499,6 +388,9 @@
   </si>
   <si>
     <t>BAE RAD5545-3DPlus DDR3</t>
+  </si>
+  <si>
+    <t>BAE RAD750</t>
   </si>
   <si>
     <t>Vorago VA41620-Everspin MRAM</t>
@@ -567,9 +459,6 @@
     <t>Non-Aerospace Market Chips</t>
   </si>
   <si>
-    <t>BAE RAD5545</t>
-  </si>
-  <si>
     <t>Teledyne LS1046-Space</t>
   </si>
   <si>
@@ -587,88 +476,111 @@
   <si>
     <t>TI Hercules</t>
   </si>
+  <si>
+    <t>Pessimistic Estimate for Realistic System</t>
+  </si>
+  <si>
+    <t>Cores x Clock Optimistic Estimate (MFLOPS)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pessimistic Estimate (MFLOPS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
+      <sz val="18.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -678,18 +590,21 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -697,13 +612,7 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -711,54 +620,58 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font/>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,12 +722,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -826,14 +733,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border/>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -882,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -893,9 +794,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -903,89 +808,79 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="19" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="22" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -993,38 +888,33 @@
     <xf borderId="0" fillId="6" fontId="6" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1033,26 +923,43 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="29" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="29" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="26" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="26" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1275,21 +1182,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.13"/>
-    <col customWidth="1" min="2" max="2" width="23.25"/>
-    <col customWidth="1" min="3" max="3" width="38.0"/>
-    <col customWidth="1" min="4" max="4" width="49.5"/>
-    <col customWidth="1" min="5" max="5" width="32.88"/>
-    <col customWidth="1" min="6" max="6" width="23.13"/>
-    <col customWidth="1" min="7" max="7" width="10.5"/>
-    <col customWidth="1" min="8" max="8" width="8.0"/>
-    <col customWidth="1" min="9" max="9" width="13.63"/>
-    <col customWidth="1" min="10" max="10" width="8.0"/>
-    <col customWidth="1" min="11" max="11" width="17.75"/>
-    <col customWidth="1" min="12" max="13" width="8.0"/>
-    <col customWidth="1" min="14" max="27" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
+    <col customWidth="1" min="2" max="7" width="21.57"/>
+    <col customWidth="1" min="8" max="15" width="14.43"/>
+    <col customWidth="1" min="16" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1310,9 +1208,9 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -1328,13 +1226,13 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1351,9 +1249,9 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -1366,23 +1264,26 @@
     </row>
     <row r="3">
       <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Specs!C3:G12,Specs!A3:A12=B3)"),15.0)</f>
-        <v>15</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.43)</f>
-        <v>3.43</v>
-      </c>
-      <c r="F3" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28438.0)</f>
-        <v>28438</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="C3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Specs!C3:G10,Specs!A3:A10=B3)"),5.0)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
+      </c>
+      <c r="F3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
+      </c>
+      <c r="G3" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
         <v>400</v>
       </c>
@@ -1394,9 +1295,9 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1408,17 +1309,13 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4">
-        <f>PI()/180/3600/1000</f>
-        <v>0.000000004848136811</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1427,9 +1324,9 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -1441,23 +1338,49 @@
       <c r="AA4" s="5"/>
     </row>
     <row r="5">
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -1468,25 +1391,55 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="6">
+        <f>ROUND(PI()*E3^2 - PI()*D3^2,0)</f>
+        <v>12829</v>
+      </c>
+      <c r="D6" s="6">
+        <f>ROUND(2*PI()*(F3/2)^2,0)</f>
+        <v>25736</v>
+      </c>
+      <c r="E6" s="4">
+        <f>ROUND(C6/(B6^2),0)</f>
+        <v>51316</v>
+      </c>
+      <c r="F6" s="4">
+        <f>E6*C3*2</f>
+        <v>513160</v>
+      </c>
+      <c r="G6" s="4">
+        <f>ROUND($G$3/B6,0)</f>
+        <v>800</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="N6" s="9">
+        <f>G3^2</f>
+        <v>160000</v>
+      </c>
+      <c r="O6" s="9">
+        <v>20.0</v>
+      </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -1497,38 +1450,25 @@
       <c r="AA6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
-        <f>E3*G4*C3/0.5/0.000000001</f>
-        <v>498.8732779</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1539,18 +1479,17 @@
       <c r="AA7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15">
+        <v>4.0</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <f>G7*0.000000001/(C3)</f>
-        <v>0.00000003325821852</v>
-      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1558,11 +1497,11 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -1573,18 +1512,18 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4">
+        <f>$F$6*D6*$C$8/2^30</f>
+        <v>49.19873834</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4">
-        <f>G8/G4</f>
-        <v>6.86</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1592,11 +1531,11 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -1607,9 +1546,14 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15">
+        <f>256*2^10</f>
+        <v>262144</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1617,15 +1561,15 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1636,25 +1580,30 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="15">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -1665,25 +1614,30 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C9*2^30*8/C10/3600</f>
+        <v>447.8178494</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -1694,9 +1648,14 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4">
+        <f>F3*C8*8/C10/3600</f>
+        <v>0.000004340277778</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1708,11 +1667,11 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -1723,9 +1682,14 @@
       <c r="AA13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <f>E6*C3*K6*C8*8/C11/3600</f>
+        <v>0.01522538927</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1737,11 +1701,11 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -1753,8 +1717,13 @@
     </row>
     <row r="15">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
+        <f>10/3600</f>
+        <v>0.002777777778</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1766,11 +1735,11 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="5"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -1782,54 +1751,29 @@
     </row>
     <row r="16">
       <c r="A16" s="6"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S16" s="5"/>
+      <c r="C16" s="4">
+        <f>L6*(2*C15+C13+C14)</f>
+        <v>0.08314114041</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -1840,63 +1784,26 @@
       <c r="AA16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Specs!H3:K12,Specs!A3:A12=B3)"),1030.0)</f>
-        <v>1030</v>
-      </c>
-      <c r="D17" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
-      </c>
-      <c r="E17" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13254.0)</f>
-        <v>13254</v>
-      </c>
-      <c r="F17" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <f>0.5*$G$7/C17</f>
-        <v>0.2421714941</v>
-      </c>
-      <c r="I17" s="4">
-        <f>ROUND(E17/(H17^2),0)</f>
-        <v>225996</v>
-      </c>
-      <c r="J17" s="4">
-        <f>I17*F17*2</f>
-        <v>2259960</v>
-      </c>
-      <c r="K17" s="4">
-        <f>ROUND($G$3/H17,0)</f>
-        <v>1652</v>
-      </c>
-      <c r="L17" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="R17" s="7">
-        <f>G3^2</f>
-        <v>160000</v>
-      </c>
+      <c r="A17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -1908,24 +1815,28 @@
       <c r="AA17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -1937,28 +1848,31 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="22">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(ComputerSpecs!D38:K40,ComputerSpecs!D30:K30=C18)"),1865.0)</f>
+        <v>1865</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -1970,29 +1884,31 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4">
-        <f>$J$17*$F$3*$C$19/2^30</f>
-        <v>239.4197229</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="22">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),194.59640038418172)</f>
+        <v>194.5964004</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -2004,29 +1920,24 @@
       <c r="AA20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="17">
-        <f>256*2^10</f>
-        <v>262144</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2038,29 +1949,25 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="17">
-        <f>2^20</f>
-        <v>1048576</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="A22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2072,29 +1979,22 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4">
-        <f>C20*2^30*8/C21/3600</f>
-        <v>2179.251522</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -2105,30 +2005,27 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="4">
-        <f>F3*C19*8/C21/3600</f>
-        <v>0.0009642876519</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -2139,30 +2036,35 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="4">
-        <f>I17*F17*O17*C19*8/C22/3600</f>
-        <v>0.06705271403</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -2173,87 +2075,101 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4">
-        <f>10/3600</f>
-        <v>0.002777777778</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="4">
-        <f>P17*(2*C26+C24+C25)</f>
-        <v>0.2942902289</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32">
+        <f>2*F6*D6^2 +D6^3/3</f>
+        <v>685456538068139</v>
+      </c>
+      <c r="D27" s="32">
+        <f>((2*H6+I6)*8*G6^2*LOG(G6,2) +6*(J6+H6)*G6^2)*C3*D6</f>
+        <v>46947071495688</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32">
+        <f>((2*H6+I6)*8*G6^2*LOG(G6,2) +6*(H6)*G6^2)*C3*D6</f>
+        <v>45464677895688</v>
+      </c>
+      <c r="G27" s="33">
+        <f>F27/D27</f>
+        <v>0.9684241519</v>
+      </c>
+      <c r="H27" s="32">
+        <f>D27-F27</f>
+        <v>1482393600000</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="32">
+        <f>D27/$C$19/3600000000</f>
+        <v>6.992414581</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -2272,21 +2188,22 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="32">
+        <f>D27/$C$20/3600000000</f>
+        <v>67.01487369</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -2305,24 +2222,17 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(ComputerSpecs!D31:K33,ComputerSpecs!D30:K30=C29)"),2.7777777777777777)</f>
-        <v>2.777777778</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2341,24 +2251,24 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.4)</f>
-        <v>15.4</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -2377,24 +2287,22 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37">
+        <v>10.0</v>
+      </c>
+      <c r="G32" s="37">
+        <f>E6/100</f>
+        <v>513.16</v>
+      </c>
+      <c r="H32" s="37">
+        <v>15.0</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2413,17 +2321,29 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2442,17 +2362,27 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2471,17 +2401,32 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42">
+        <f>(2*F6*D6 +D6^3/3)*L6</f>
+        <v>22833688003755</v>
+      </c>
+      <c r="D35" s="42">
+        <f>F6*D6^2</f>
+        <v>339887264719360</v>
+      </c>
+      <c r="E35" s="42">
+        <f>(2*D6^3/3)*M6</f>
+        <v>45456069035349</v>
+      </c>
+      <c r="F35" s="42">
+        <f>2*F6*D6*L6</f>
+        <v>105653486080</v>
+      </c>
+      <c r="G35" s="42">
+        <f>H32*(C3*(14*N6*log(N6)/log(2) + 7*N6 + 2*G32*D6 +D6) + D6*(4*F32+1))*L6</f>
+        <v>19948385535</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2500,17 +2445,34 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="36"/>
+      <c r="B36" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="43">
+        <f t="shared" ref="C36:C37" si="2">$C$35/C19/3600000000</f>
+        <v>3.400906763</v>
+      </c>
+      <c r="D36" s="43">
+        <f t="shared" ref="D36:G36" si="1">D35/$C$19/3600000000</f>
+        <v>50.62366171</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="1"/>
+        <v>6.770340935</v>
+      </c>
+      <c r="F36" s="43">
+        <f t="shared" si="1"/>
+        <v>0.01573629522</v>
+      </c>
+      <c r="G36" s="43">
+        <f t="shared" si="1"/>
+        <v>0.002971162576</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -2529,17 +2491,34 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="36"/>
+      <c r="B37" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="43">
+        <f t="shared" si="2"/>
+        <v>32.59408242</v>
+      </c>
+      <c r="D37" s="43">
+        <f t="shared" ref="D37:G37" si="3">D35/$C$20/3600000000</f>
+        <v>485.1740777</v>
+      </c>
+      <c r="E37" s="43">
+        <f t="shared" si="3"/>
+        <v>64.88653345</v>
+      </c>
+      <c r="F37" s="43">
+        <f t="shared" si="3"/>
+        <v>0.1508156909</v>
+      </c>
+      <c r="G37" s="43">
+        <f t="shared" si="3"/>
+        <v>0.02847544042</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -2558,17 +2537,17 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -2587,17 +2566,17 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="36"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -2616,17 +2595,25 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -2645,17 +2632,23 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="36"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -2674,17 +2667,28 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="B42" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="44">
+        <f>(D6^2)*C8</f>
+        <v>2649366784</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="44">
+        <f>F6*D6*C8*M6</f>
+        <v>211306972160</v>
+      </c>
+      <c r="F42" s="44">
+        <f>(4*F6 + 0.5*F32*D6)*C8</f>
+        <v>8725280</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -2703,17 +2707,28 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="44">
+        <f>C42/2^30</f>
+        <v>2.467415094</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="44">
+        <f t="shared" ref="E43:F43" si="4">E42/2^30</f>
+        <v>196.7949533</v>
+      </c>
+      <c r="F43" s="44">
+        <f t="shared" si="4"/>
+        <v>0.008126050234</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -2732,17 +2747,18 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -2761,17 +2777,15 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -2790,17 +2804,23 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46">
-      <c r="A46" s="19"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -2819,18 +2839,21 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47">
-      <c r="A47" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2849,15 +2872,23 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48">
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="25"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="45">
+        <f>2*D6*F6</f>
+        <v>26413371520</v>
+      </c>
+      <c r="D48" s="45">
+        <f>2*K6*D6*F6</f>
+        <v>184893600640</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -2877,18 +2908,24 @@
       <c r="AA48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="45">
+        <f t="shared" ref="C49:C50" si="5">$C$48/C19/3600000000</f>
+        <v>0.003934073804</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" ref="D49:D50" si="6">$D$48/C19/3600000000</f>
+        <v>0.02753851663</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -2908,26 +2945,24 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="45">
+        <f t="shared" si="5"/>
+        <v>0.03770392273</v>
+      </c>
+      <c r="D50" s="45">
+        <f t="shared" si="6"/>
+        <v>0.2639274591</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2947,100 +2982,81 @@
       <c r="AA50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35">
-        <f>2*J17*$F$3^2 +$F$3^3/3</f>
-        <v>3.66302E+15</v>
-      </c>
-      <c r="D52" s="35">
-        <f>((2*L17+M17)*8*K17^2*LOG(K17,2) +6*(N17+L17)*K17^2)*F17*$F$3</f>
-        <v>243944523741021</v>
-      </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="28">
-        <f>((2*L17+M17)*8*K17^2*LOG(K17,2) +6*(L17)*K17^2)*F17*$F$3</f>
-        <v>236959600381341</v>
-      </c>
-      <c r="G52" s="36">
-        <f>F52/D52</f>
-        <v>0.9713667548</v>
-      </c>
-      <c r="H52" s="35">
-        <f>D52-F52</f>
-        <v>6984923359680</v>
-      </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
+      <c r="A52" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="35">
-        <f>D52*$C$30/3600000000000</f>
-        <v>188.2287992</v>
-      </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="C53" s="40">
+        <v>14.0</v>
+      </c>
+      <c r="D53" s="40">
+        <v>35.0</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -3060,21 +3076,26 @@
       <c r="AA53" s="5"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="35">
-        <f>D52*$C$31/3600000000000</f>
-        <v>1043.540463</v>
-      </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -3094,21 +3115,24 @@
       <c r="AA54" s="5"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="35">
-        <f>D52*$C$32/3600000000000</f>
-        <v>3388.118385</v>
-      </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -3128,16 +3152,28 @@
       <c r="AA55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42">
+        <f>(5*K6+4*K6^2+$C$53)*E6*C3</f>
+        <v>62862100</v>
+      </c>
+      <c r="D56" s="42">
+        <f>(5*K6+$D$53)*E6*C3</f>
+        <v>17960600</v>
+      </c>
+      <c r="E56" s="42">
+        <f>+$D$53*E6*C3</f>
+        <v>8980300</v>
+      </c>
+      <c r="F56" s="42">
+        <f>7*M6*E6*C3</f>
+        <v>7184240</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -3157,20 +3193,30 @@
       <c r="AA56" s="5"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="42">
+        <f t="shared" ref="C57:C58" si="7">$C$56/C19/3600000000</f>
+        <v>0.000009362838844</v>
+      </c>
+      <c r="D57" s="42">
+        <f t="shared" ref="D57:D58" si="8">$D$56/C19/3600000000</f>
+        <v>0.000002675096813</v>
+      </c>
+      <c r="E57" s="42">
+        <f t="shared" ref="E57:E58" si="9">$E$56/C19/3600000000</f>
+        <v>0.000001337548406</v>
+      </c>
+      <c r="F57" s="42">
+        <f t="shared" ref="F57:F58" si="10">$F$56/C19/3600000000</f>
+        <v>0.000001070038725</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -3190,20 +3236,30 @@
       <c r="AA57" s="5"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="42">
+        <f t="shared" si="7"/>
+        <v>0.00008973287486</v>
+      </c>
+      <c r="D58" s="42">
+        <f t="shared" si="8"/>
+        <v>0.00002563796425</v>
+      </c>
+      <c r="E58" s="42">
+        <f t="shared" si="9"/>
+        <v>0.00001281898212</v>
+      </c>
+      <c r="F58" s="42">
+        <f t="shared" si="10"/>
+        <v>0.0000102551857</v>
+      </c>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -3223,16 +3279,16 @@
       <c r="AA58" s="5"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -3252,18 +3308,16 @@
       <c r="AA59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -3283,22 +3337,26 @@
       <c r="AA60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -3318,24 +3376,24 @@
       <c r="AA61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="28">
-        <f>$C$63*(1-2*0.05/3)</f>
-        <v>555.8333333</v>
-      </c>
-      <c r="D62" s="28">
-        <f t="shared" ref="D62:D72" si="1">ROUND($G$3/(0.5*$G$7/C62),0)</f>
-        <v>891</v>
-      </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -3355,23 +3413,28 @@
       <c r="AA62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="39">
-        <v>575.0</v>
-      </c>
-      <c r="D63" s="28">
-        <f t="shared" si="1"/>
-        <v>922</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42">
+        <f>2*E6*C3*K6</f>
+        <v>3592120</v>
+      </c>
+      <c r="D63" s="42">
+        <f>2*E6*C3*K6</f>
+        <v>3592120</v>
+      </c>
+      <c r="E63" s="42">
+        <f>E6*C3</f>
+        <v>256580</v>
+      </c>
+      <c r="F63" s="42">
+        <f>M6*E6*C3</f>
+        <v>1026320</v>
+      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -3391,24 +3454,19 @@
       <c r="AA63" s="5"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="28">
-        <f>$C$63*(1+2*0.05/3)</f>
-        <v>594.1666667</v>
-      </c>
-      <c r="D64" s="28">
-        <f t="shared" si="1"/>
-        <v>953</v>
-      </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="A64" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
@@ -3428,24 +3486,16 @@
       <c r="AA64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="28">
-        <f>$C$67*(1 - 4*0.09/5)</f>
-        <v>677.44</v>
-      </c>
-      <c r="D65" s="28">
-        <f t="shared" si="1"/>
-        <v>1086</v>
-      </c>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
+      <c r="C65" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
@@ -3465,24 +3515,22 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="28">
-        <f>$C$67*(1 - 2*0.09/5)</f>
-        <v>703.72</v>
-      </c>
-      <c r="D66" s="28">
-        <f t="shared" si="1"/>
-        <v>1128</v>
+      <c r="A66" s="25"/>
+      <c r="B66" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -3502,23 +3550,20 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="39">
-        <v>730.0</v>
-      </c>
-      <c r="D67" s="28">
-        <f t="shared" si="1"/>
-        <v>1171</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -3538,24 +3583,22 @@
       <c r="AA67" s="5"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="28">
-        <f>$C$67*(1 + 2*0.09/5)</f>
-        <v>756.28</v>
-      </c>
-      <c r="D68" s="28">
-        <f t="shared" si="1"/>
-        <v>1213</v>
-      </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="45">
+        <f>3*E6*$C$65*C3*D6</f>
+        <v>9905014320</v>
+      </c>
+      <c r="D68" s="45">
+        <f>2*E6*$C$65*C3*D6+D6^3/3</f>
+        <v>5688611972299</v>
+      </c>
+      <c r="E68" s="45"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -3575,24 +3618,24 @@
       <c r="AA68" s="5"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="28">
-        <f>$C$67*(1 +4*0.09/5)</f>
-        <v>782.56</v>
-      </c>
-      <c r="D69" s="28">
-        <f t="shared" si="1"/>
-        <v>1255</v>
-      </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="45">
+        <f t="shared" ref="C69:C70" si="11">$C$68/C19/3600000000</f>
+        <v>0.001475277676</v>
+      </c>
+      <c r="D69" s="45">
+        <f t="shared" ref="D69:D70" si="12">$D$68/C19/3600000000</f>
+        <v>0.8472761353</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -3612,24 +3655,24 @@
       <c r="AA69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="28">
-        <f>$C$71*(1-2*0.05/3)</f>
-        <v>797.5</v>
-      </c>
-      <c r="D70" s="28">
-        <f t="shared" si="1"/>
-        <v>1279</v>
-      </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="45">
+        <f t="shared" si="11"/>
+        <v>0.01413897103</v>
+      </c>
+      <c r="D70" s="45">
+        <f t="shared" si="12"/>
+        <v>8.120242662</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -3649,23 +3692,16 @@
       <c r="AA70" s="5"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="39">
-        <v>825.0</v>
-      </c>
-      <c r="D71" s="28">
-        <f t="shared" si="1"/>
-        <v>1323</v>
-      </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -3685,24 +3721,16 @@
       <c r="AA71" s="5"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="28"/>
-      <c r="B72" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="28">
-        <f>$C$71*(1+2*0.05/3)</f>
-        <v>852.5</v>
-      </c>
-      <c r="D72" s="28">
-        <f t="shared" si="1"/>
-        <v>1367</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -3722,23 +3750,16 @@
       <c r="AA72" s="5"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H73" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -3758,21 +3779,22 @@
       <c r="AA73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="G74" s="42">
-        <f>I17/100</f>
-        <v>2259.96</v>
-      </c>
-      <c r="H74" s="42">
-        <v>15.0</v>
-      </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="28"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -3792,26 +3814,20 @@
       <c r="AA74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="41"/>
-      <c r="B75" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="F75" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="30"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -3831,24 +3847,22 @@
       <c r="AA75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="45">
+        <f>2*E6*$C$65*C3*D6</f>
+        <v>6603342880</v>
+      </c>
+      <c r="D76" s="48">
+        <f>E6*$C$65*C3</f>
+        <v>128290</v>
+      </c>
+      <c r="E76" s="45"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -3868,28 +3882,17 @@
       <c r="AA76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="41"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="47">
-        <f>(2*J17*$F$3 +$F$3^3/3)*P17</f>
-        <v>31178649838069</v>
-      </c>
-      <c r="D77" s="47">
-        <f>(2*$F$3^3/3)*Q17</f>
-        <v>61328999796459</v>
-      </c>
-      <c r="E77" s="47">
-        <f>2*J17*$F$3*P17</f>
-        <v>514149939840</v>
-      </c>
-      <c r="F77" s="47">
-        <f>H74*(F17*(14*R17*log(R17)/log(2) + 7*R17 + 2*G74*F3 +F3) + F3*(4*F74+1))*P17</f>
-        <v>50593077087</v>
-      </c>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
+      <c r="A77" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="39"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -3909,30 +3912,14 @@
       <c r="AA77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="41"/>
-      <c r="B78" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="49">
-        <f t="shared" ref="C78:C80" si="3">$C$77*C30/3600000000000</f>
-        <v>24.05760018</v>
-      </c>
-      <c r="D78" s="49">
-        <f t="shared" ref="D78:F78" si="2">D77*$C$30/3600000000000</f>
-        <v>47.3217591</v>
-      </c>
-      <c r="E78" s="49">
-        <f t="shared" si="2"/>
-        <v>0.3967206326</v>
-      </c>
-      <c r="F78" s="49">
-        <f t="shared" si="2"/>
-        <v>0.03903786812</v>
-      </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -3952,30 +3939,20 @@
       <c r="AA78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="41"/>
-      <c r="B79" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" s="49">
-        <f t="shared" si="3"/>
-        <v>133.3753354</v>
-      </c>
-      <c r="D79" s="49">
-        <f t="shared" ref="D79:F79" si="4">D77*$C$31/3600000000000</f>
-        <v>262.3518325</v>
-      </c>
-      <c r="E79" s="49">
-        <f t="shared" si="4"/>
-        <v>2.199419187</v>
-      </c>
-      <c r="F79" s="49">
-        <f t="shared" si="4"/>
-        <v>0.2164259409</v>
-      </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -3995,30 +3972,18 @@
       <c r="AA79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="41"/>
-      <c r="B80" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="49">
-        <f t="shared" si="3"/>
-        <v>433.0368033</v>
-      </c>
-      <c r="D80" s="49">
-        <f t="shared" ref="D80:F80" si="5">D77*$C$32/3600000000000</f>
-        <v>851.7916638</v>
-      </c>
-      <c r="E80" s="49">
-        <f t="shared" si="5"/>
-        <v>7.140971387</v>
-      </c>
-      <c r="F80" s="49">
-        <f t="shared" si="5"/>
-        <v>0.7026816262</v>
-      </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -4038,16 +4003,19 @@
       <c r="AA80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="41"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42">
+        <f>8*F6*D6*(K6+1)*$O$6</f>
+        <v>16904557772800</v>
+      </c>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -4067,24 +4035,21 @@
       <c r="AA81" s="5"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="41"/>
-      <c r="B82" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="41">
+        <f>C81/$C$19/3600000000</f>
+        <v>2.517807235</v>
+      </c>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -4104,22 +4069,21 @@
       <c r="AA82" s="5"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="41"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="41">
+        <f>$C$81/$C$20/3600000000</f>
+        <v>24.13051055</v>
+      </c>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -4139,27 +4103,16 @@
       <c r="AA83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="41"/>
-      <c r="B84" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" s="50">
-        <f>($F$3^2)*C19</f>
-        <v>3234879376</v>
-      </c>
-      <c r="D84" s="47"/>
-      <c r="E84" s="50">
-        <f>J17*$F$3*C19*Q17</f>
-        <v>1028299879680</v>
-      </c>
-      <c r="F84" s="50">
-        <f>(4*J17 + 0.5*F74*$F$3)*C19</f>
-        <v>36728120</v>
-      </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -4179,27 +4132,16 @@
       <c r="AA84" s="5"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="41"/>
-      <c r="B85" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="50">
-        <f>C84/2^30</f>
-        <v>3.012716189</v>
-      </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="50">
-        <f t="shared" ref="E85:F85" si="6">E84/2^30</f>
-        <v>957.6788914</v>
-      </c>
-      <c r="F85" s="50">
-        <f t="shared" si="6"/>
-        <v>0.03420572728</v>
-      </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -4219,17 +4161,20 @@
       <c r="AA85" s="5"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -4249,14 +4194,19 @@
       <c r="AA86" s="5"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="42">
+        <f>((D6+F6)*K6 + D6)*C8</f>
+        <v>15192032</v>
+      </c>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -4276,22 +4226,16 @@
       <c r="AA87" s="5"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="28"/>
-      <c r="B88" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -4311,20 +4255,16 @@
       <c r="AA88" s="5"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -4344,22 +4284,16 @@
       <c r="AA89" s="5"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="28"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="51">
-        <f>2*$F$3*J17</f>
-        <v>128537484960</v>
-      </c>
-      <c r="D90" s="51">
-        <f>2*O17*$F$3*J17</f>
-        <v>899762394720</v>
-      </c>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -4379,24 +4313,16 @@
       <c r="AA90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="28"/>
-      <c r="B91" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="51">
-        <f t="shared" ref="C91:C93" si="7">$C$90*C30/3600000000000</f>
-        <v>0.09918015815</v>
-      </c>
-      <c r="D91" s="51">
-        <f t="shared" ref="D91:D93" si="8">$D$90*C30/3600000000000</f>
-        <v>0.694261107</v>
-      </c>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -4416,24 +4342,16 @@
       <c r="AA91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="28"/>
-      <c r="B92" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="51">
-        <f t="shared" si="7"/>
-        <v>0.5498547968</v>
-      </c>
-      <c r="D92" s="51">
-        <f t="shared" si="8"/>
-        <v>3.848983577</v>
-      </c>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
@@ -4453,24 +4371,16 @@
       <c r="AA92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="28"/>
-      <c r="B93" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="51">
-        <f t="shared" si="7"/>
-        <v>1.785242847</v>
-      </c>
-      <c r="D93" s="51">
-        <f t="shared" si="8"/>
-        <v>12.49669993</v>
-      </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -4490,21 +4400,16 @@
       <c r="AA93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -4524,18 +4429,16 @@
       <c r="AA94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="45">
-        <v>14.0</v>
-      </c>
-      <c r="D95" s="45">
-        <v>35.0</v>
-      </c>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -4555,26 +4458,16 @@
       <c r="AA95" s="5"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="41"/>
-      <c r="B96" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F96" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -4594,24 +4487,16 @@
       <c r="AA96" s="5"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="41"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F97" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -4631,28 +4516,16 @@
       <c r="AA97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="41"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="47">
-        <f>(5*O17+4*O17^2+$C$95)*I17*F17</f>
-        <v>276845100</v>
-      </c>
-      <c r="D98" s="47">
-        <f>(5*O17+$D$95)*I17*F17</f>
-        <v>79098600</v>
-      </c>
-      <c r="E98" s="47">
-        <f>+$D$95*I17*F17</f>
-        <v>39549300</v>
-      </c>
-      <c r="F98" s="47">
-        <f>7*Q17*I17*F17</f>
-        <v>31639440</v>
-      </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -4672,30 +4545,16 @@
       <c r="AA98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="41"/>
-      <c r="B99" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99" s="47">
-        <f t="shared" ref="C99:C101" si="9">$C$98*C30/3600000000000</f>
-        <v>0.0002136150463</v>
-      </c>
-      <c r="D99" s="47">
-        <f t="shared" ref="D99:D101" si="10">$D$98*C30/3600000000000</f>
-        <v>0.00006103287037</v>
-      </c>
-      <c r="E99" s="47">
-        <f t="shared" ref="E99:E101" si="11">$E$98*C30/3600000000000</f>
-        <v>0.00003051643519</v>
-      </c>
-      <c r="F99" s="47">
-        <f t="shared" ref="F99:F101" si="12">$F$98*C30/3600000000000</f>
-        <v>0.00002441314815</v>
-      </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -4715,30 +4574,16 @@
       <c r="AA99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="41"/>
-      <c r="B100" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="47">
-        <f t="shared" si="9"/>
-        <v>0.001184281817</v>
-      </c>
-      <c r="D100" s="47">
-        <f t="shared" si="10"/>
-        <v>0.0003383662333</v>
-      </c>
-      <c r="E100" s="47">
-        <f t="shared" si="11"/>
-        <v>0.0001691831167</v>
-      </c>
-      <c r="F100" s="47">
-        <f t="shared" si="12"/>
-        <v>0.0001353464933</v>
-      </c>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -4758,30 +4603,16 @@
       <c r="AA100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="41"/>
-      <c r="B101" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="47">
-        <f t="shared" si="9"/>
-        <v>0.003845070833</v>
-      </c>
-      <c r="D101" s="47">
-        <f t="shared" si="10"/>
-        <v>0.001098591667</v>
-      </c>
-      <c r="E101" s="47">
-        <f t="shared" si="11"/>
-        <v>0.0005492958333</v>
-      </c>
-      <c r="F101" s="47">
-        <f t="shared" si="12"/>
-        <v>0.0004394366667</v>
-      </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -4801,16 +4632,16 @@
       <c r="AA101" s="5"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
@@ -4830,26 +4661,16 @@
       <c r="AA102" s="5"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="41"/>
-      <c r="B103" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F103" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
@@ -4869,24 +4690,16 @@
       <c r="AA103" s="5"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="41"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D104" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F104" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -4906,28 +4719,16 @@
       <c r="AA104" s="5"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="41"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="47">
-        <f>2*I17*F17*O17</f>
-        <v>15819720</v>
-      </c>
-      <c r="D105" s="47">
-        <f>2*I17*F17*O17</f>
-        <v>15819720</v>
-      </c>
-      <c r="E105" s="47">
-        <f>I17*F17</f>
-        <v>1129980</v>
-      </c>
-      <c r="F105" s="47">
-        <f>Q17*I17*F17</f>
-        <v>4519920</v>
-      </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
@@ -4947,19 +4748,16 @@
       <c r="AA105" s="5"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -4979,16 +4777,16 @@
       <c r="AA106" s="5"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="D107" s="33"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
@@ -5008,22 +4806,16 @@
       <c r="AA107" s="5"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="28"/>
-      <c r="B108" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
@@ -5043,20 +4835,16 @@
       <c r="AA108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="28"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E109" s="33"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
@@ -5076,22 +4864,16 @@
       <c r="AA109" s="5"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="28"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="51">
-        <f>3*I17*$C$107*F17*$F$3</f>
-        <v>48201556860</v>
-      </c>
-      <c r="D110" s="51">
-        <f>2*I17*$C$107*F17*$F$3+$F$3^3/3</f>
-        <v>7698259345797</v>
-      </c>
-      <c r="E110" s="51"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
@@ -5111,24 +4893,16 @@
       <c r="AA110" s="5"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="28"/>
-      <c r="B111" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C111" s="51">
-        <f t="shared" ref="C111:C113" si="13">$C$110*C30/3600000000000</f>
-        <v>0.03719255931</v>
-      </c>
-      <c r="D111" s="51">
-        <f t="shared" ref="D111:D113" si="14">$D$110*C30/3600000000000</f>
-        <v>5.940014927</v>
-      </c>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
@@ -5148,24 +4922,16 @@
       <c r="AA111" s="5"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="28"/>
-      <c r="B112" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="51">
-        <f t="shared" si="13"/>
-        <v>0.2061955488</v>
-      </c>
-      <c r="D112" s="51">
-        <f t="shared" si="14"/>
-        <v>32.93144276</v>
-      </c>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -5185,24 +4951,16 @@
       <c r="AA112" s="5"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="28"/>
-      <c r="B113" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="51">
-        <f t="shared" si="13"/>
-        <v>0.6694660675</v>
-      </c>
-      <c r="D113" s="51">
-        <f t="shared" si="14"/>
-        <v>106.9202687</v>
-      </c>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
@@ -5222,16 +4980,16 @@
       <c r="AA113" s="5"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="28"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
@@ -5251,16 +5009,16 @@
       <c r="AA114" s="5"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="28"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
@@ -5280,22 +5038,16 @@
       <c r="AA115" s="5"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="28"/>
-      <c r="B116" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E116" s="31"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
@@ -5315,20 +5067,16 @@
       <c r="AA116" s="5"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="33"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -5348,22 +5096,16 @@
       <c r="AA117" s="5"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="28"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="51">
-        <f>2*I17*$C$107*F17*$F$3</f>
-        <v>32134371240</v>
-      </c>
-      <c r="D118" s="54">
-        <f>I17*$C$107*F17</f>
-        <v>564990</v>
-      </c>
-      <c r="E118" s="51"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
@@ -5383,17 +5125,16 @@
       <c r="AA118" s="5"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
@@ -5413,14 +5154,16 @@
       <c r="AA119" s="5"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -5440,20 +5183,16 @@
       <c r="AA120" s="5"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="41"/>
-      <c r="B121" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C121" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -5473,18 +5212,16 @@
       <c r="AA121" s="5"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="41"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -5504,19 +5241,16 @@
       <c r="AA122" s="5"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="41"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="47">
-        <f>8*J17*$F$3*(O17+1)*$P$17</f>
-        <v>16452798074880</v>
-      </c>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -5536,21 +5270,16 @@
       <c r="AA123" s="5"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="41"/>
-      <c r="B124" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C124" s="46">
-        <f>C123*$C$30/3600000000000</f>
-        <v>12.69506024</v>
-      </c>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
@@ -5570,21 +5299,16 @@
       <c r="AA124" s="5"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="41"/>
-      <c r="B125" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C125" s="46">
-        <f>$C$123*$C$31/3600000000000</f>
-        <v>70.38141399</v>
-      </c>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -5604,21 +5328,16 @@
       <c r="AA125" s="5"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="41"/>
-      <c r="B126" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C126" s="46">
-        <f>$C$123*$C$32/3600000000000</f>
-        <v>228.5110844</v>
-      </c>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -5638,16 +5357,16 @@
       <c r="AA126" s="5"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="41"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -5667,20 +5386,16 @@
       <c r="AA127" s="5"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="41"/>
-      <c r="B128" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C128" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -5700,19 +5415,16 @@
       <c r="AA128" s="5"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="41"/>
-      <c r="B129" s="41"/>
-      <c r="C129" s="45">
-        <f>((F3+J17)*O17 + F3)*C19</f>
-        <v>64188896</v>
-      </c>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -30410,1240 +30122,21 @@
       <c r="Z980" s="5"/>
       <c r="AA980" s="5"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="5"/>
-      <c r="B981" s="5"/>
-      <c r="C981" s="5"/>
-      <c r="D981" s="5"/>
-      <c r="E981" s="5"/>
-      <c r="F981" s="5"/>
-      <c r="G981" s="5"/>
-      <c r="H981" s="5"/>
-      <c r="I981" s="5"/>
-      <c r="J981" s="5"/>
-      <c r="K981" s="5"/>
-      <c r="L981" s="5"/>
-      <c r="M981" s="5"/>
-      <c r="N981" s="5"/>
-      <c r="O981" s="5"/>
-      <c r="P981" s="5"/>
-      <c r="Q981" s="5"/>
-      <c r="R981" s="5"/>
-      <c r="S981" s="5"/>
-      <c r="T981" s="5"/>
-      <c r="U981" s="5"/>
-      <c r="V981" s="5"/>
-      <c r="W981" s="5"/>
-      <c r="X981" s="5"/>
-      <c r="Y981" s="5"/>
-      <c r="Z981" s="5"/>
-      <c r="AA981" s="5"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="5"/>
-      <c r="B982" s="5"/>
-      <c r="C982" s="5"/>
-      <c r="D982" s="5"/>
-      <c r="E982" s="5"/>
-      <c r="F982" s="5"/>
-      <c r="G982" s="5"/>
-      <c r="H982" s="5"/>
-      <c r="I982" s="5"/>
-      <c r="J982" s="5"/>
-      <c r="K982" s="5"/>
-      <c r="L982" s="5"/>
-      <c r="M982" s="5"/>
-      <c r="N982" s="5"/>
-      <c r="O982" s="5"/>
-      <c r="P982" s="5"/>
-      <c r="Q982" s="5"/>
-      <c r="R982" s="5"/>
-      <c r="S982" s="5"/>
-      <c r="T982" s="5"/>
-      <c r="U982" s="5"/>
-      <c r="V982" s="5"/>
-      <c r="W982" s="5"/>
-      <c r="X982" s="5"/>
-      <c r="Y982" s="5"/>
-      <c r="Z982" s="5"/>
-      <c r="AA982" s="5"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="5"/>
-      <c r="B983" s="5"/>
-      <c r="C983" s="5"/>
-      <c r="D983" s="5"/>
-      <c r="E983" s="5"/>
-      <c r="F983" s="5"/>
-      <c r="G983" s="5"/>
-      <c r="H983" s="5"/>
-      <c r="I983" s="5"/>
-      <c r="J983" s="5"/>
-      <c r="K983" s="5"/>
-      <c r="L983" s="5"/>
-      <c r="M983" s="5"/>
-      <c r="N983" s="5"/>
-      <c r="O983" s="5"/>
-      <c r="P983" s="5"/>
-      <c r="Q983" s="5"/>
-      <c r="R983" s="5"/>
-      <c r="S983" s="5"/>
-      <c r="T983" s="5"/>
-      <c r="U983" s="5"/>
-      <c r="V983" s="5"/>
-      <c r="W983" s="5"/>
-      <c r="X983" s="5"/>
-      <c r="Y983" s="5"/>
-      <c r="Z983" s="5"/>
-      <c r="AA983" s="5"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="5"/>
-      <c r="B984" s="5"/>
-      <c r="C984" s="5"/>
-      <c r="D984" s="5"/>
-      <c r="E984" s="5"/>
-      <c r="F984" s="5"/>
-      <c r="G984" s="5"/>
-      <c r="H984" s="5"/>
-      <c r="I984" s="5"/>
-      <c r="J984" s="5"/>
-      <c r="K984" s="5"/>
-      <c r="L984" s="5"/>
-      <c r="M984" s="5"/>
-      <c r="N984" s="5"/>
-      <c r="O984" s="5"/>
-      <c r="P984" s="5"/>
-      <c r="Q984" s="5"/>
-      <c r="R984" s="5"/>
-      <c r="S984" s="5"/>
-      <c r="T984" s="5"/>
-      <c r="U984" s="5"/>
-      <c r="V984" s="5"/>
-      <c r="W984" s="5"/>
-      <c r="X984" s="5"/>
-      <c r="Y984" s="5"/>
-      <c r="Z984" s="5"/>
-      <c r="AA984" s="5"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="5"/>
-      <c r="B985" s="5"/>
-      <c r="C985" s="5"/>
-      <c r="D985" s="5"/>
-      <c r="E985" s="5"/>
-      <c r="F985" s="5"/>
-      <c r="G985" s="5"/>
-      <c r="H985" s="5"/>
-      <c r="I985" s="5"/>
-      <c r="J985" s="5"/>
-      <c r="K985" s="5"/>
-      <c r="L985" s="5"/>
-      <c r="M985" s="5"/>
-      <c r="N985" s="5"/>
-      <c r="O985" s="5"/>
-      <c r="P985" s="5"/>
-      <c r="Q985" s="5"/>
-      <c r="R985" s="5"/>
-      <c r="S985" s="5"/>
-      <c r="T985" s="5"/>
-      <c r="U985" s="5"/>
-      <c r="V985" s="5"/>
-      <c r="W985" s="5"/>
-      <c r="X985" s="5"/>
-      <c r="Y985" s="5"/>
-      <c r="Z985" s="5"/>
-      <c r="AA985" s="5"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="5"/>
-      <c r="B986" s="5"/>
-      <c r="C986" s="5"/>
-      <c r="D986" s="5"/>
-      <c r="E986" s="5"/>
-      <c r="F986" s="5"/>
-      <c r="G986" s="5"/>
-      <c r="H986" s="5"/>
-      <c r="I986" s="5"/>
-      <c r="J986" s="5"/>
-      <c r="K986" s="5"/>
-      <c r="L986" s="5"/>
-      <c r="M986" s="5"/>
-      <c r="N986" s="5"/>
-      <c r="O986" s="5"/>
-      <c r="P986" s="5"/>
-      <c r="Q986" s="5"/>
-      <c r="R986" s="5"/>
-      <c r="S986" s="5"/>
-      <c r="T986" s="5"/>
-      <c r="U986" s="5"/>
-      <c r="V986" s="5"/>
-      <c r="W986" s="5"/>
-      <c r="X986" s="5"/>
-      <c r="Y986" s="5"/>
-      <c r="Z986" s="5"/>
-      <c r="AA986" s="5"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="5"/>
-      <c r="B987" s="5"/>
-      <c r="C987" s="5"/>
-      <c r="D987" s="5"/>
-      <c r="E987" s="5"/>
-      <c r="F987" s="5"/>
-      <c r="G987" s="5"/>
-      <c r="H987" s="5"/>
-      <c r="I987" s="5"/>
-      <c r="J987" s="5"/>
-      <c r="K987" s="5"/>
-      <c r="L987" s="5"/>
-      <c r="M987" s="5"/>
-      <c r="N987" s="5"/>
-      <c r="O987" s="5"/>
-      <c r="P987" s="5"/>
-      <c r="Q987" s="5"/>
-      <c r="R987" s="5"/>
-      <c r="S987" s="5"/>
-      <c r="T987" s="5"/>
-      <c r="U987" s="5"/>
-      <c r="V987" s="5"/>
-      <c r="W987" s="5"/>
-      <c r="X987" s="5"/>
-      <c r="Y987" s="5"/>
-      <c r="Z987" s="5"/>
-      <c r="AA987" s="5"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="5"/>
-      <c r="B988" s="5"/>
-      <c r="C988" s="5"/>
-      <c r="D988" s="5"/>
-      <c r="E988" s="5"/>
-      <c r="F988" s="5"/>
-      <c r="G988" s="5"/>
-      <c r="H988" s="5"/>
-      <c r="I988" s="5"/>
-      <c r="J988" s="5"/>
-      <c r="K988" s="5"/>
-      <c r="L988" s="5"/>
-      <c r="M988" s="5"/>
-      <c r="N988" s="5"/>
-      <c r="O988" s="5"/>
-      <c r="P988" s="5"/>
-      <c r="Q988" s="5"/>
-      <c r="R988" s="5"/>
-      <c r="S988" s="5"/>
-      <c r="T988" s="5"/>
-      <c r="U988" s="5"/>
-      <c r="V988" s="5"/>
-      <c r="W988" s="5"/>
-      <c r="X988" s="5"/>
-      <c r="Y988" s="5"/>
-      <c r="Z988" s="5"/>
-      <c r="AA988" s="5"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="5"/>
-      <c r="B989" s="5"/>
-      <c r="C989" s="5"/>
-      <c r="D989" s="5"/>
-      <c r="E989" s="5"/>
-      <c r="F989" s="5"/>
-      <c r="G989" s="5"/>
-      <c r="H989" s="5"/>
-      <c r="I989" s="5"/>
-      <c r="J989" s="5"/>
-      <c r="K989" s="5"/>
-      <c r="L989" s="5"/>
-      <c r="M989" s="5"/>
-      <c r="N989" s="5"/>
-      <c r="O989" s="5"/>
-      <c r="P989" s="5"/>
-      <c r="Q989" s="5"/>
-      <c r="R989" s="5"/>
-      <c r="S989" s="5"/>
-      <c r="T989" s="5"/>
-      <c r="U989" s="5"/>
-      <c r="V989" s="5"/>
-      <c r="W989" s="5"/>
-      <c r="X989" s="5"/>
-      <c r="Y989" s="5"/>
-      <c r="Z989" s="5"/>
-      <c r="AA989" s="5"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="5"/>
-      <c r="B990" s="5"/>
-      <c r="C990" s="5"/>
-      <c r="D990" s="5"/>
-      <c r="E990" s="5"/>
-      <c r="F990" s="5"/>
-      <c r="G990" s="5"/>
-      <c r="H990" s="5"/>
-      <c r="I990" s="5"/>
-      <c r="J990" s="5"/>
-      <c r="K990" s="5"/>
-      <c r="L990" s="5"/>
-      <c r="M990" s="5"/>
-      <c r="N990" s="5"/>
-      <c r="O990" s="5"/>
-      <c r="P990" s="5"/>
-      <c r="Q990" s="5"/>
-      <c r="R990" s="5"/>
-      <c r="S990" s="5"/>
-      <c r="T990" s="5"/>
-      <c r="U990" s="5"/>
-      <c r="V990" s="5"/>
-      <c r="W990" s="5"/>
-      <c r="X990" s="5"/>
-      <c r="Y990" s="5"/>
-      <c r="Z990" s="5"/>
-      <c r="AA990" s="5"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="5"/>
-      <c r="B991" s="5"/>
-      <c r="C991" s="5"/>
-      <c r="D991" s="5"/>
-      <c r="E991" s="5"/>
-      <c r="F991" s="5"/>
-      <c r="G991" s="5"/>
-      <c r="H991" s="5"/>
-      <c r="I991" s="5"/>
-      <c r="J991" s="5"/>
-      <c r="K991" s="5"/>
-      <c r="L991" s="5"/>
-      <c r="M991" s="5"/>
-      <c r="N991" s="5"/>
-      <c r="O991" s="5"/>
-      <c r="P991" s="5"/>
-      <c r="Q991" s="5"/>
-      <c r="R991" s="5"/>
-      <c r="S991" s="5"/>
-      <c r="T991" s="5"/>
-      <c r="U991" s="5"/>
-      <c r="V991" s="5"/>
-      <c r="W991" s="5"/>
-      <c r="X991" s="5"/>
-      <c r="Y991" s="5"/>
-      <c r="Z991" s="5"/>
-      <c r="AA991" s="5"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="5"/>
-      <c r="B992" s="5"/>
-      <c r="C992" s="5"/>
-      <c r="D992" s="5"/>
-      <c r="E992" s="5"/>
-      <c r="F992" s="5"/>
-      <c r="G992" s="5"/>
-      <c r="H992" s="5"/>
-      <c r="I992" s="5"/>
-      <c r="J992" s="5"/>
-      <c r="K992" s="5"/>
-      <c r="L992" s="5"/>
-      <c r="M992" s="5"/>
-      <c r="N992" s="5"/>
-      <c r="O992" s="5"/>
-      <c r="P992" s="5"/>
-      <c r="Q992" s="5"/>
-      <c r="R992" s="5"/>
-      <c r="S992" s="5"/>
-      <c r="T992" s="5"/>
-      <c r="U992" s="5"/>
-      <c r="V992" s="5"/>
-      <c r="W992" s="5"/>
-      <c r="X992" s="5"/>
-      <c r="Y992" s="5"/>
-      <c r="Z992" s="5"/>
-      <c r="AA992" s="5"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="5"/>
-      <c r="B993" s="5"/>
-      <c r="C993" s="5"/>
-      <c r="D993" s="5"/>
-      <c r="E993" s="5"/>
-      <c r="F993" s="5"/>
-      <c r="G993" s="5"/>
-      <c r="H993" s="5"/>
-      <c r="I993" s="5"/>
-      <c r="J993" s="5"/>
-      <c r="K993" s="5"/>
-      <c r="L993" s="5"/>
-      <c r="M993" s="5"/>
-      <c r="N993" s="5"/>
-      <c r="O993" s="5"/>
-      <c r="P993" s="5"/>
-      <c r="Q993" s="5"/>
-      <c r="R993" s="5"/>
-      <c r="S993" s="5"/>
-      <c r="T993" s="5"/>
-      <c r="U993" s="5"/>
-      <c r="V993" s="5"/>
-      <c r="W993" s="5"/>
-      <c r="X993" s="5"/>
-      <c r="Y993" s="5"/>
-      <c r="Z993" s="5"/>
-      <c r="AA993" s="5"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="5"/>
-      <c r="B994" s="5"/>
-      <c r="C994" s="5"/>
-      <c r="D994" s="5"/>
-      <c r="E994" s="5"/>
-      <c r="F994" s="5"/>
-      <c r="G994" s="5"/>
-      <c r="H994" s="5"/>
-      <c r="I994" s="5"/>
-      <c r="J994" s="5"/>
-      <c r="K994" s="5"/>
-      <c r="L994" s="5"/>
-      <c r="M994" s="5"/>
-      <c r="N994" s="5"/>
-      <c r="O994" s="5"/>
-      <c r="P994" s="5"/>
-      <c r="Q994" s="5"/>
-      <c r="R994" s="5"/>
-      <c r="S994" s="5"/>
-      <c r="T994" s="5"/>
-      <c r="U994" s="5"/>
-      <c r="V994" s="5"/>
-      <c r="W994" s="5"/>
-      <c r="X994" s="5"/>
-      <c r="Y994" s="5"/>
-      <c r="Z994" s="5"/>
-      <c r="AA994" s="5"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="5"/>
-      <c r="B995" s="5"/>
-      <c r="C995" s="5"/>
-      <c r="D995" s="5"/>
-      <c r="E995" s="5"/>
-      <c r="F995" s="5"/>
-      <c r="G995" s="5"/>
-      <c r="H995" s="5"/>
-      <c r="I995" s="5"/>
-      <c r="J995" s="5"/>
-      <c r="K995" s="5"/>
-      <c r="L995" s="5"/>
-      <c r="M995" s="5"/>
-      <c r="N995" s="5"/>
-      <c r="O995" s="5"/>
-      <c r="P995" s="5"/>
-      <c r="Q995" s="5"/>
-      <c r="R995" s="5"/>
-      <c r="S995" s="5"/>
-      <c r="T995" s="5"/>
-      <c r="U995" s="5"/>
-      <c r="V995" s="5"/>
-      <c r="W995" s="5"/>
-      <c r="X995" s="5"/>
-      <c r="Y995" s="5"/>
-      <c r="Z995" s="5"/>
-      <c r="AA995" s="5"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="5"/>
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
-      <c r="E996" s="5"/>
-      <c r="F996" s="5"/>
-      <c r="G996" s="5"/>
-      <c r="H996" s="5"/>
-      <c r="I996" s="5"/>
-      <c r="J996" s="5"/>
-      <c r="K996" s="5"/>
-      <c r="L996" s="5"/>
-      <c r="M996" s="5"/>
-      <c r="N996" s="5"/>
-      <c r="O996" s="5"/>
-      <c r="P996" s="5"/>
-      <c r="Q996" s="5"/>
-      <c r="R996" s="5"/>
-      <c r="S996" s="5"/>
-      <c r="T996" s="5"/>
-      <c r="U996" s="5"/>
-      <c r="V996" s="5"/>
-      <c r="W996" s="5"/>
-      <c r="X996" s="5"/>
-      <c r="Y996" s="5"/>
-      <c r="Z996" s="5"/>
-      <c r="AA996" s="5"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="5"/>
-      <c r="B997" s="5"/>
-      <c r="C997" s="5"/>
-      <c r="D997" s="5"/>
-      <c r="E997" s="5"/>
-      <c r="F997" s="5"/>
-      <c r="G997" s="5"/>
-      <c r="H997" s="5"/>
-      <c r="I997" s="5"/>
-      <c r="J997" s="5"/>
-      <c r="K997" s="5"/>
-      <c r="L997" s="5"/>
-      <c r="M997" s="5"/>
-      <c r="N997" s="5"/>
-      <c r="O997" s="5"/>
-      <c r="P997" s="5"/>
-      <c r="Q997" s="5"/>
-      <c r="R997" s="5"/>
-      <c r="S997" s="5"/>
-      <c r="T997" s="5"/>
-      <c r="U997" s="5"/>
-      <c r="V997" s="5"/>
-      <c r="W997" s="5"/>
-      <c r="X997" s="5"/>
-      <c r="Y997" s="5"/>
-      <c r="Z997" s="5"/>
-      <c r="AA997" s="5"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="5"/>
-      <c r="B998" s="5"/>
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
-      <c r="F998" s="5"/>
-      <c r="G998" s="5"/>
-      <c r="H998" s="5"/>
-      <c r="I998" s="5"/>
-      <c r="J998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="L998" s="5"/>
-      <c r="M998" s="5"/>
-      <c r="N998" s="5"/>
-      <c r="O998" s="5"/>
-      <c r="P998" s="5"/>
-      <c r="Q998" s="5"/>
-      <c r="R998" s="5"/>
-      <c r="S998" s="5"/>
-      <c r="T998" s="5"/>
-      <c r="U998" s="5"/>
-      <c r="V998" s="5"/>
-      <c r="W998" s="5"/>
-      <c r="X998" s="5"/>
-      <c r="Y998" s="5"/>
-      <c r="Z998" s="5"/>
-      <c r="AA998" s="5"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="5"/>
-      <c r="B999" s="5"/>
-      <c r="C999" s="5"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
-      <c r="F999" s="5"/>
-      <c r="G999" s="5"/>
-      <c r="H999" s="5"/>
-      <c r="I999" s="5"/>
-      <c r="J999" s="5"/>
-      <c r="K999" s="5"/>
-      <c r="L999" s="5"/>
-      <c r="M999" s="5"/>
-      <c r="N999" s="5"/>
-      <c r="O999" s="5"/>
-      <c r="P999" s="5"/>
-      <c r="Q999" s="5"/>
-      <c r="R999" s="5"/>
-      <c r="S999" s="5"/>
-      <c r="T999" s="5"/>
-      <c r="U999" s="5"/>
-      <c r="V999" s="5"/>
-      <c r="W999" s="5"/>
-      <c r="X999" s="5"/>
-      <c r="Y999" s="5"/>
-      <c r="Z999" s="5"/>
-      <c r="AA999" s="5"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="5"/>
-      <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
-      <c r="F1000" s="5"/>
-      <c r="G1000" s="5"/>
-      <c r="H1000" s="5"/>
-      <c r="I1000" s="5"/>
-      <c r="J1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="L1000" s="5"/>
-      <c r="M1000" s="5"/>
-      <c r="N1000" s="5"/>
-      <c r="O1000" s="5"/>
-      <c r="P1000" s="5"/>
-      <c r="Q1000" s="5"/>
-      <c r="R1000" s="5"/>
-      <c r="S1000" s="5"/>
-      <c r="T1000" s="5"/>
-      <c r="U1000" s="5"/>
-      <c r="V1000" s="5"/>
-      <c r="W1000" s="5"/>
-      <c r="X1000" s="5"/>
-      <c r="Y1000" s="5"/>
-      <c r="Z1000" s="5"/>
-      <c r="AA1000" s="5"/>
-    </row>
-    <row r="1001" ht="15.75" customHeight="1">
-      <c r="A1001" s="5"/>
-      <c r="B1001" s="5"/>
-      <c r="C1001" s="5"/>
-      <c r="D1001" s="5"/>
-      <c r="E1001" s="5"/>
-      <c r="F1001" s="5"/>
-      <c r="G1001" s="5"/>
-      <c r="H1001" s="5"/>
-      <c r="I1001" s="5"/>
-      <c r="J1001" s="5"/>
-      <c r="K1001" s="5"/>
-      <c r="L1001" s="5"/>
-      <c r="M1001" s="5"/>
-      <c r="N1001" s="5"/>
-      <c r="O1001" s="5"/>
-      <c r="P1001" s="5"/>
-      <c r="Q1001" s="5"/>
-      <c r="R1001" s="5"/>
-      <c r="S1001" s="5"/>
-      <c r="T1001" s="5"/>
-      <c r="U1001" s="5"/>
-      <c r="V1001" s="5"/>
-      <c r="W1001" s="5"/>
-      <c r="X1001" s="5"/>
-      <c r="Y1001" s="5"/>
-      <c r="Z1001" s="5"/>
-      <c r="AA1001" s="5"/>
-    </row>
-    <row r="1002" ht="15.75" customHeight="1">
-      <c r="A1002" s="5"/>
-      <c r="B1002" s="5"/>
-      <c r="C1002" s="5"/>
-      <c r="D1002" s="5"/>
-      <c r="E1002" s="5"/>
-      <c r="F1002" s="5"/>
-      <c r="G1002" s="5"/>
-      <c r="H1002" s="5"/>
-      <c r="I1002" s="5"/>
-      <c r="J1002" s="5"/>
-      <c r="K1002" s="5"/>
-      <c r="L1002" s="5"/>
-      <c r="M1002" s="5"/>
-      <c r="N1002" s="5"/>
-      <c r="O1002" s="5"/>
-      <c r="P1002" s="5"/>
-      <c r="Q1002" s="5"/>
-      <c r="R1002" s="5"/>
-      <c r="S1002" s="5"/>
-      <c r="T1002" s="5"/>
-      <c r="U1002" s="5"/>
-      <c r="V1002" s="5"/>
-      <c r="W1002" s="5"/>
-      <c r="X1002" s="5"/>
-      <c r="Y1002" s="5"/>
-      <c r="Z1002" s="5"/>
-      <c r="AA1002" s="5"/>
-    </row>
-    <row r="1003" ht="15.75" customHeight="1">
-      <c r="A1003" s="5"/>
-      <c r="B1003" s="5"/>
-      <c r="C1003" s="5"/>
-      <c r="D1003" s="5"/>
-      <c r="E1003" s="5"/>
-      <c r="F1003" s="5"/>
-      <c r="G1003" s="5"/>
-      <c r="H1003" s="5"/>
-      <c r="I1003" s="5"/>
-      <c r="J1003" s="5"/>
-      <c r="K1003" s="5"/>
-      <c r="L1003" s="5"/>
-      <c r="M1003" s="5"/>
-      <c r="N1003" s="5"/>
-      <c r="O1003" s="5"/>
-      <c r="P1003" s="5"/>
-      <c r="Q1003" s="5"/>
-      <c r="R1003" s="5"/>
-      <c r="S1003" s="5"/>
-      <c r="T1003" s="5"/>
-      <c r="U1003" s="5"/>
-      <c r="V1003" s="5"/>
-      <c r="W1003" s="5"/>
-      <c r="X1003" s="5"/>
-      <c r="Y1003" s="5"/>
-      <c r="Z1003" s="5"/>
-      <c r="AA1003" s="5"/>
-    </row>
-    <row r="1004" ht="15.75" customHeight="1">
-      <c r="A1004" s="5"/>
-      <c r="B1004" s="5"/>
-      <c r="C1004" s="5"/>
-      <c r="D1004" s="5"/>
-      <c r="E1004" s="5"/>
-      <c r="F1004" s="5"/>
-      <c r="G1004" s="5"/>
-      <c r="H1004" s="5"/>
-      <c r="I1004" s="5"/>
-      <c r="J1004" s="5"/>
-      <c r="K1004" s="5"/>
-      <c r="L1004" s="5"/>
-      <c r="M1004" s="5"/>
-      <c r="N1004" s="5"/>
-      <c r="O1004" s="5"/>
-      <c r="P1004" s="5"/>
-      <c r="Q1004" s="5"/>
-      <c r="R1004" s="5"/>
-      <c r="S1004" s="5"/>
-      <c r="T1004" s="5"/>
-      <c r="U1004" s="5"/>
-      <c r="V1004" s="5"/>
-      <c r="W1004" s="5"/>
-      <c r="X1004" s="5"/>
-      <c r="Y1004" s="5"/>
-      <c r="Z1004" s="5"/>
-      <c r="AA1004" s="5"/>
-    </row>
-    <row r="1005" ht="15.75" customHeight="1">
-      <c r="A1005" s="5"/>
-      <c r="B1005" s="5"/>
-      <c r="C1005" s="5"/>
-      <c r="D1005" s="5"/>
-      <c r="E1005" s="5"/>
-      <c r="F1005" s="5"/>
-      <c r="G1005" s="5"/>
-      <c r="H1005" s="5"/>
-      <c r="I1005" s="5"/>
-      <c r="J1005" s="5"/>
-      <c r="K1005" s="5"/>
-      <c r="L1005" s="5"/>
-      <c r="M1005" s="5"/>
-      <c r="N1005" s="5"/>
-      <c r="O1005" s="5"/>
-      <c r="P1005" s="5"/>
-      <c r="Q1005" s="5"/>
-      <c r="R1005" s="5"/>
-      <c r="S1005" s="5"/>
-      <c r="T1005" s="5"/>
-      <c r="U1005" s="5"/>
-      <c r="V1005" s="5"/>
-      <c r="W1005" s="5"/>
-      <c r="X1005" s="5"/>
-      <c r="Y1005" s="5"/>
-      <c r="Z1005" s="5"/>
-      <c r="AA1005" s="5"/>
-    </row>
-    <row r="1006" ht="15.75" customHeight="1">
-      <c r="A1006" s="5"/>
-      <c r="B1006" s="5"/>
-      <c r="C1006" s="5"/>
-      <c r="D1006" s="5"/>
-      <c r="E1006" s="5"/>
-      <c r="F1006" s="5"/>
-      <c r="G1006" s="5"/>
-      <c r="H1006" s="5"/>
-      <c r="I1006" s="5"/>
-      <c r="J1006" s="5"/>
-      <c r="K1006" s="5"/>
-      <c r="L1006" s="5"/>
-      <c r="M1006" s="5"/>
-      <c r="N1006" s="5"/>
-      <c r="O1006" s="5"/>
-      <c r="P1006" s="5"/>
-      <c r="Q1006" s="5"/>
-      <c r="R1006" s="5"/>
-      <c r="S1006" s="5"/>
-      <c r="T1006" s="5"/>
-      <c r="U1006" s="5"/>
-      <c r="V1006" s="5"/>
-      <c r="W1006" s="5"/>
-      <c r="X1006" s="5"/>
-      <c r="Y1006" s="5"/>
-      <c r="Z1006" s="5"/>
-      <c r="AA1006" s="5"/>
-    </row>
-    <row r="1007" ht="15.75" customHeight="1">
-      <c r="A1007" s="5"/>
-      <c r="B1007" s="5"/>
-      <c r="C1007" s="5"/>
-      <c r="D1007" s="5"/>
-      <c r="E1007" s="5"/>
-      <c r="F1007" s="5"/>
-      <c r="G1007" s="5"/>
-      <c r="H1007" s="5"/>
-      <c r="I1007" s="5"/>
-      <c r="J1007" s="5"/>
-      <c r="K1007" s="5"/>
-      <c r="L1007" s="5"/>
-      <c r="M1007" s="5"/>
-      <c r="N1007" s="5"/>
-      <c r="O1007" s="5"/>
-      <c r="P1007" s="5"/>
-      <c r="Q1007" s="5"/>
-      <c r="R1007" s="5"/>
-      <c r="S1007" s="5"/>
-      <c r="T1007" s="5"/>
-      <c r="U1007" s="5"/>
-      <c r="V1007" s="5"/>
-      <c r="W1007" s="5"/>
-      <c r="X1007" s="5"/>
-      <c r="Y1007" s="5"/>
-      <c r="Z1007" s="5"/>
-      <c r="AA1007" s="5"/>
-    </row>
-    <row r="1008" ht="15.75" customHeight="1">
-      <c r="A1008" s="5"/>
-      <c r="B1008" s="5"/>
-      <c r="C1008" s="5"/>
-      <c r="D1008" s="5"/>
-      <c r="E1008" s="5"/>
-      <c r="F1008" s="5"/>
-      <c r="G1008" s="5"/>
-      <c r="H1008" s="5"/>
-      <c r="I1008" s="5"/>
-      <c r="J1008" s="5"/>
-      <c r="K1008" s="5"/>
-      <c r="L1008" s="5"/>
-      <c r="M1008" s="5"/>
-      <c r="N1008" s="5"/>
-      <c r="O1008" s="5"/>
-      <c r="P1008" s="5"/>
-      <c r="Q1008" s="5"/>
-      <c r="R1008" s="5"/>
-      <c r="S1008" s="5"/>
-      <c r="T1008" s="5"/>
-      <c r="U1008" s="5"/>
-      <c r="V1008" s="5"/>
-      <c r="W1008" s="5"/>
-      <c r="X1008" s="5"/>
-      <c r="Y1008" s="5"/>
-      <c r="Z1008" s="5"/>
-      <c r="AA1008" s="5"/>
-    </row>
-    <row r="1009" ht="15.75" customHeight="1">
-      <c r="A1009" s="5"/>
-      <c r="B1009" s="5"/>
-      <c r="C1009" s="5"/>
-      <c r="D1009" s="5"/>
-      <c r="E1009" s="5"/>
-      <c r="F1009" s="5"/>
-      <c r="G1009" s="5"/>
-      <c r="H1009" s="5"/>
-      <c r="I1009" s="5"/>
-      <c r="J1009" s="5"/>
-      <c r="K1009" s="5"/>
-      <c r="L1009" s="5"/>
-      <c r="M1009" s="5"/>
-      <c r="N1009" s="5"/>
-      <c r="O1009" s="5"/>
-      <c r="P1009" s="5"/>
-      <c r="Q1009" s="5"/>
-      <c r="R1009" s="5"/>
-      <c r="S1009" s="5"/>
-      <c r="T1009" s="5"/>
-      <c r="U1009" s="5"/>
-      <c r="V1009" s="5"/>
-      <c r="W1009" s="5"/>
-      <c r="X1009" s="5"/>
-      <c r="Y1009" s="5"/>
-      <c r="Z1009" s="5"/>
-      <c r="AA1009" s="5"/>
-    </row>
-    <row r="1010" ht="15.75" customHeight="1">
-      <c r="A1010" s="5"/>
-      <c r="B1010" s="5"/>
-      <c r="C1010" s="5"/>
-      <c r="D1010" s="5"/>
-      <c r="E1010" s="5"/>
-      <c r="F1010" s="5"/>
-      <c r="G1010" s="5"/>
-      <c r="H1010" s="5"/>
-      <c r="I1010" s="5"/>
-      <c r="J1010" s="5"/>
-      <c r="K1010" s="5"/>
-      <c r="L1010" s="5"/>
-      <c r="M1010" s="5"/>
-      <c r="N1010" s="5"/>
-      <c r="O1010" s="5"/>
-      <c r="P1010" s="5"/>
-      <c r="Q1010" s="5"/>
-      <c r="R1010" s="5"/>
-      <c r="S1010" s="5"/>
-      <c r="T1010" s="5"/>
-      <c r="U1010" s="5"/>
-      <c r="V1010" s="5"/>
-      <c r="W1010" s="5"/>
-      <c r="X1010" s="5"/>
-      <c r="Y1010" s="5"/>
-      <c r="Z1010" s="5"/>
-      <c r="AA1010" s="5"/>
-    </row>
-    <row r="1011" ht="15.75" customHeight="1">
-      <c r="A1011" s="5"/>
-      <c r="B1011" s="5"/>
-      <c r="C1011" s="5"/>
-      <c r="D1011" s="5"/>
-      <c r="E1011" s="5"/>
-      <c r="F1011" s="5"/>
-      <c r="G1011" s="5"/>
-      <c r="H1011" s="5"/>
-      <c r="I1011" s="5"/>
-      <c r="J1011" s="5"/>
-      <c r="K1011" s="5"/>
-      <c r="L1011" s="5"/>
-      <c r="M1011" s="5"/>
-      <c r="N1011" s="5"/>
-      <c r="O1011" s="5"/>
-      <c r="P1011" s="5"/>
-      <c r="Q1011" s="5"/>
-      <c r="R1011" s="5"/>
-      <c r="S1011" s="5"/>
-      <c r="T1011" s="5"/>
-      <c r="U1011" s="5"/>
-      <c r="V1011" s="5"/>
-      <c r="W1011" s="5"/>
-      <c r="X1011" s="5"/>
-      <c r="Y1011" s="5"/>
-      <c r="Z1011" s="5"/>
-      <c r="AA1011" s="5"/>
-    </row>
-    <row r="1012" ht="15.75" customHeight="1">
-      <c r="A1012" s="5"/>
-      <c r="B1012" s="5"/>
-      <c r="C1012" s="5"/>
-      <c r="D1012" s="5"/>
-      <c r="E1012" s="5"/>
-      <c r="F1012" s="5"/>
-      <c r="G1012" s="5"/>
-      <c r="H1012" s="5"/>
-      <c r="I1012" s="5"/>
-      <c r="J1012" s="5"/>
-      <c r="K1012" s="5"/>
-      <c r="L1012" s="5"/>
-      <c r="M1012" s="5"/>
-      <c r="N1012" s="5"/>
-      <c r="O1012" s="5"/>
-      <c r="P1012" s="5"/>
-      <c r="Q1012" s="5"/>
-      <c r="R1012" s="5"/>
-      <c r="S1012" s="5"/>
-      <c r="T1012" s="5"/>
-      <c r="U1012" s="5"/>
-      <c r="V1012" s="5"/>
-      <c r="W1012" s="5"/>
-      <c r="X1012" s="5"/>
-      <c r="Y1012" s="5"/>
-      <c r="Z1012" s="5"/>
-      <c r="AA1012" s="5"/>
-    </row>
-    <row r="1013" ht="15.75" customHeight="1">
-      <c r="A1013" s="5"/>
-      <c r="B1013" s="5"/>
-      <c r="C1013" s="5"/>
-      <c r="D1013" s="5"/>
-      <c r="E1013" s="5"/>
-      <c r="F1013" s="5"/>
-      <c r="G1013" s="5"/>
-      <c r="H1013" s="5"/>
-      <c r="I1013" s="5"/>
-      <c r="J1013" s="5"/>
-      <c r="K1013" s="5"/>
-      <c r="L1013" s="5"/>
-      <c r="M1013" s="5"/>
-      <c r="N1013" s="5"/>
-      <c r="O1013" s="5"/>
-      <c r="P1013" s="5"/>
-      <c r="Q1013" s="5"/>
-      <c r="R1013" s="5"/>
-      <c r="S1013" s="5"/>
-      <c r="T1013" s="5"/>
-      <c r="U1013" s="5"/>
-      <c r="V1013" s="5"/>
-      <c r="W1013" s="5"/>
-      <c r="X1013" s="5"/>
-      <c r="Y1013" s="5"/>
-      <c r="Z1013" s="5"/>
-      <c r="AA1013" s="5"/>
-    </row>
-    <row r="1014" ht="15.75" customHeight="1">
-      <c r="A1014" s="5"/>
-      <c r="B1014" s="5"/>
-      <c r="C1014" s="5"/>
-      <c r="D1014" s="5"/>
-      <c r="E1014" s="5"/>
-      <c r="F1014" s="5"/>
-      <c r="G1014" s="5"/>
-      <c r="H1014" s="5"/>
-      <c r="I1014" s="5"/>
-      <c r="J1014" s="5"/>
-      <c r="K1014" s="5"/>
-      <c r="L1014" s="5"/>
-      <c r="M1014" s="5"/>
-      <c r="N1014" s="5"/>
-      <c r="O1014" s="5"/>
-      <c r="P1014" s="5"/>
-      <c r="Q1014" s="5"/>
-      <c r="R1014" s="5"/>
-      <c r="S1014" s="5"/>
-      <c r="T1014" s="5"/>
-      <c r="U1014" s="5"/>
-      <c r="V1014" s="5"/>
-      <c r="W1014" s="5"/>
-      <c r="X1014" s="5"/>
-      <c r="Y1014" s="5"/>
-      <c r="Z1014" s="5"/>
-      <c r="AA1014" s="5"/>
-    </row>
-    <row r="1015" ht="15.75" customHeight="1">
-      <c r="A1015" s="5"/>
-      <c r="B1015" s="5"/>
-      <c r="C1015" s="5"/>
-      <c r="D1015" s="5"/>
-      <c r="E1015" s="5"/>
-      <c r="F1015" s="5"/>
-      <c r="G1015" s="5"/>
-      <c r="H1015" s="5"/>
-      <c r="I1015" s="5"/>
-      <c r="J1015" s="5"/>
-      <c r="K1015" s="5"/>
-      <c r="L1015" s="5"/>
-      <c r="M1015" s="5"/>
-      <c r="N1015" s="5"/>
-      <c r="O1015" s="5"/>
-      <c r="P1015" s="5"/>
-      <c r="Q1015" s="5"/>
-      <c r="R1015" s="5"/>
-      <c r="S1015" s="5"/>
-      <c r="T1015" s="5"/>
-      <c r="U1015" s="5"/>
-      <c r="V1015" s="5"/>
-      <c r="W1015" s="5"/>
-      <c r="X1015" s="5"/>
-      <c r="Y1015" s="5"/>
-      <c r="Z1015" s="5"/>
-      <c r="AA1015" s="5"/>
-    </row>
-    <row r="1016" ht="15.75" customHeight="1">
-      <c r="A1016" s="5"/>
-      <c r="B1016" s="5"/>
-      <c r="C1016" s="5"/>
-      <c r="D1016" s="5"/>
-      <c r="E1016" s="5"/>
-      <c r="F1016" s="5"/>
-      <c r="G1016" s="5"/>
-      <c r="H1016" s="5"/>
-      <c r="I1016" s="5"/>
-      <c r="J1016" s="5"/>
-      <c r="K1016" s="5"/>
-      <c r="L1016" s="5"/>
-      <c r="M1016" s="5"/>
-      <c r="N1016" s="5"/>
-      <c r="O1016" s="5"/>
-      <c r="P1016" s="5"/>
-      <c r="Q1016" s="5"/>
-      <c r="R1016" s="5"/>
-      <c r="S1016" s="5"/>
-      <c r="T1016" s="5"/>
-      <c r="U1016" s="5"/>
-      <c r="V1016" s="5"/>
-      <c r="W1016" s="5"/>
-      <c r="X1016" s="5"/>
-      <c r="Y1016" s="5"/>
-      <c r="Z1016" s="5"/>
-      <c r="AA1016" s="5"/>
-    </row>
-    <row r="1017" ht="15.75" customHeight="1">
-      <c r="A1017" s="5"/>
-      <c r="B1017" s="5"/>
-      <c r="C1017" s="5"/>
-      <c r="D1017" s="5"/>
-      <c r="E1017" s="5"/>
-      <c r="F1017" s="5"/>
-      <c r="G1017" s="5"/>
-      <c r="H1017" s="5"/>
-      <c r="I1017" s="5"/>
-      <c r="J1017" s="5"/>
-      <c r="K1017" s="5"/>
-      <c r="L1017" s="5"/>
-      <c r="M1017" s="5"/>
-      <c r="N1017" s="5"/>
-      <c r="O1017" s="5"/>
-      <c r="P1017" s="5"/>
-      <c r="Q1017" s="5"/>
-      <c r="R1017" s="5"/>
-      <c r="S1017" s="5"/>
-      <c r="T1017" s="5"/>
-      <c r="U1017" s="5"/>
-      <c r="V1017" s="5"/>
-      <c r="W1017" s="5"/>
-      <c r="X1017" s="5"/>
-      <c r="Y1017" s="5"/>
-      <c r="Z1017" s="5"/>
-      <c r="AA1017" s="5"/>
-    </row>
-    <row r="1018" ht="15.75" customHeight="1">
-      <c r="A1018" s="5"/>
-      <c r="B1018" s="5"/>
-      <c r="C1018" s="5"/>
-      <c r="D1018" s="5"/>
-      <c r="E1018" s="5"/>
-      <c r="F1018" s="5"/>
-      <c r="G1018" s="5"/>
-      <c r="H1018" s="5"/>
-      <c r="I1018" s="5"/>
-      <c r="J1018" s="5"/>
-      <c r="K1018" s="5"/>
-      <c r="L1018" s="5"/>
-      <c r="M1018" s="5"/>
-      <c r="N1018" s="5"/>
-      <c r="O1018" s="5"/>
-      <c r="P1018" s="5"/>
-      <c r="Q1018" s="5"/>
-      <c r="R1018" s="5"/>
-      <c r="S1018" s="5"/>
-      <c r="T1018" s="5"/>
-      <c r="U1018" s="5"/>
-      <c r="V1018" s="5"/>
-      <c r="W1018" s="5"/>
-      <c r="X1018" s="5"/>
-      <c r="Y1018" s="5"/>
-      <c r="Z1018" s="5"/>
-      <c r="AA1018" s="5"/>
-    </row>
-    <row r="1019" ht="15.75" customHeight="1">
-      <c r="A1019" s="5"/>
-      <c r="B1019" s="5"/>
-      <c r="C1019" s="5"/>
-      <c r="D1019" s="5"/>
-      <c r="E1019" s="5"/>
-      <c r="F1019" s="5"/>
-      <c r="G1019" s="5"/>
-      <c r="H1019" s="5"/>
-      <c r="I1019" s="5"/>
-      <c r="J1019" s="5"/>
-      <c r="K1019" s="5"/>
-      <c r="L1019" s="5"/>
-      <c r="M1019" s="5"/>
-      <c r="N1019" s="5"/>
-      <c r="O1019" s="5"/>
-      <c r="P1019" s="5"/>
-      <c r="Q1019" s="5"/>
-      <c r="R1019" s="5"/>
-      <c r="S1019" s="5"/>
-      <c r="T1019" s="5"/>
-      <c r="U1019" s="5"/>
-      <c r="V1019" s="5"/>
-      <c r="W1019" s="5"/>
-      <c r="X1019" s="5"/>
-      <c r="Y1019" s="5"/>
-      <c r="Z1019" s="5"/>
-      <c r="AA1019" s="5"/>
-    </row>
-    <row r="1020" ht="15.75" customHeight="1">
-      <c r="A1020" s="5"/>
-      <c r="B1020" s="5"/>
-      <c r="C1020" s="5"/>
-      <c r="D1020" s="5"/>
-      <c r="E1020" s="5"/>
-      <c r="F1020" s="5"/>
-      <c r="G1020" s="5"/>
-      <c r="H1020" s="5"/>
-      <c r="I1020" s="5"/>
-      <c r="J1020" s="5"/>
-      <c r="K1020" s="5"/>
-      <c r="L1020" s="5"/>
-      <c r="M1020" s="5"/>
-      <c r="N1020" s="5"/>
-      <c r="O1020" s="5"/>
-      <c r="P1020" s="5"/>
-      <c r="Q1020" s="5"/>
-      <c r="R1020" s="5"/>
-      <c r="S1020" s="5"/>
-      <c r="T1020" s="5"/>
-      <c r="U1020" s="5"/>
-      <c r="V1020" s="5"/>
-      <c r="W1020" s="5"/>
-      <c r="X1020" s="5"/>
-      <c r="Y1020" s="5"/>
-      <c r="Z1020" s="5"/>
-      <c r="AA1020" s="5"/>
-    </row>
-    <row r="1021" ht="15.75" customHeight="1">
-      <c r="A1021" s="5"/>
-      <c r="B1021" s="5"/>
-      <c r="C1021" s="5"/>
-      <c r="D1021" s="5"/>
-      <c r="E1021" s="5"/>
-      <c r="F1021" s="5"/>
-      <c r="G1021" s="5"/>
-      <c r="H1021" s="5"/>
-      <c r="I1021" s="5"/>
-      <c r="J1021" s="5"/>
-      <c r="K1021" s="5"/>
-      <c r="L1021" s="5"/>
-      <c r="M1021" s="5"/>
-      <c r="N1021" s="5"/>
-      <c r="O1021" s="5"/>
-      <c r="P1021" s="5"/>
-      <c r="Q1021" s="5"/>
-      <c r="R1021" s="5"/>
-      <c r="S1021" s="5"/>
-      <c r="T1021" s="5"/>
-      <c r="U1021" s="5"/>
-      <c r="V1021" s="5"/>
-      <c r="W1021" s="5"/>
-      <c r="X1021" s="5"/>
-      <c r="Y1021" s="5"/>
-      <c r="Z1021" s="5"/>
-      <c r="AA1021" s="5"/>
-    </row>
-    <row r="1022" ht="15.75" customHeight="1">
-      <c r="A1022" s="5"/>
-      <c r="B1022" s="5"/>
-      <c r="C1022" s="5"/>
-      <c r="D1022" s="5"/>
-      <c r="E1022" s="5"/>
-      <c r="F1022" s="5"/>
-      <c r="G1022" s="5"/>
-      <c r="H1022" s="5"/>
-      <c r="I1022" s="5"/>
-      <c r="J1022" s="5"/>
-      <c r="K1022" s="5"/>
-      <c r="L1022" s="5"/>
-      <c r="M1022" s="5"/>
-      <c r="N1022" s="5"/>
-      <c r="O1022" s="5"/>
-      <c r="P1022" s="5"/>
-      <c r="Q1022" s="5"/>
-      <c r="R1022" s="5"/>
-      <c r="S1022" s="5"/>
-      <c r="T1022" s="5"/>
-      <c r="U1022" s="5"/>
-      <c r="V1022" s="5"/>
-      <c r="W1022" s="5"/>
-      <c r="X1022" s="5"/>
-      <c r="Y1022" s="5"/>
-      <c r="Z1022" s="5"/>
-      <c r="AA1022" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="A119:B120"/>
+  <mergeCells count="6">
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="A77:B78"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3">
+      <formula1>Specs!$A$3:$A$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18">
       <formula1>ComputerSpecs!$D$30:$K$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3">
-      <formula1>Specs!$A$3:$A$12</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -31661,7 +30154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="K1" s="5"/>
@@ -31675,535 +30168,250 @@
       <c r="X1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="O2" s="56" t="s">
-        <v>142</v>
-      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="54"/>
+      <c r="O2" s="50"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="61"/>
+      <c r="V2" s="16"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="62">
-        <v>2.3631</v>
-      </c>
-      <c r="D3" s="60">
-        <v>0.013</v>
-      </c>
-      <c r="E3" s="62">
-        <v>21.83</v>
-      </c>
-      <c r="F3" s="63">
-        <f t="shared" ref="F3:F5" si="1">ROUND(PI()*(48/2)^2 +1.1^2*PI()*(48/2)^2,0)</f>
-        <v>3999</v>
-      </c>
-      <c r="G3" s="60">
+      <c r="A3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="D3" s="52">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="52">
+        <v>9.0</v>
+      </c>
+      <c r="F3" s="55">
+        <v>48.0</v>
+      </c>
+      <c r="G3" s="52">
         <v>386.0</v>
       </c>
-      <c r="H3" s="60">
-        <v>785.0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="J3" s="5">
-        <f>CEILING((PI()*(M3+1)^2 - PI()*(L3-1)^2)*(65+5+5)*2/360,1)</f>
-        <v>128</v>
-      </c>
-      <c r="K3" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="L3" s="60">
-        <v>2.5</v>
-      </c>
-      <c r="M3" s="60">
-        <v>9.0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>730.0</v>
-      </c>
-      <c r="Q3" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>147</v>
-      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="62">
-        <v>2.3631</v>
-      </c>
-      <c r="D4" s="60">
-        <v>0.013</v>
-      </c>
-      <c r="E4" s="62">
-        <v>21.83</v>
-      </c>
-      <c r="F4" s="63">
-        <f t="shared" si="1"/>
-        <v>3999</v>
-      </c>
-      <c r="G4" s="60">
-        <v>386.0</v>
-      </c>
-      <c r="H4" s="60">
-        <v>605.0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J12" si="2">CEILING((PI()*(M4+1)^2 - PI()*(L4-1)^2),1)</f>
-        <v>302</v>
-      </c>
-      <c r="K4" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="L4" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="M4" s="60">
-        <v>9.0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>575.0</v>
-      </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="A4" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="52">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="52">
+        <v>32.0</v>
+      </c>
+      <c r="F4" s="52">
+        <v>64.0</v>
+      </c>
+      <c r="G4" s="52">
+        <v>400.0</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
     </row>
     <row r="5">
-      <c r="A5" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="62">
-        <v>2.3631</v>
-      </c>
-      <c r="D5" s="60">
-        <v>0.013</v>
-      </c>
-      <c r="E5" s="62">
-        <v>21.83</v>
-      </c>
-      <c r="F5" s="63">
-        <f t="shared" si="1"/>
-        <v>3999</v>
-      </c>
-      <c r="G5" s="60">
-        <v>386.0</v>
-      </c>
-      <c r="H5" s="60">
-        <v>866.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="2"/>
-        <v>1331</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="L5" s="60">
-        <v>5.2</v>
-      </c>
-      <c r="M5" s="60">
-        <v>20.0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>825.0</v>
-      </c>
+      <c r="A5" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="52">
+        <v>40.0</v>
+      </c>
+      <c r="F5" s="52">
+        <v>128.0</v>
+      </c>
+      <c r="G5" s="52">
+        <v>400.0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="60">
-        <v>4.04</v>
-      </c>
-      <c r="D6" s="60">
-        <v>0.015</v>
-      </c>
-      <c r="E6" s="60">
-        <v>11.6</v>
-      </c>
-      <c r="F6" s="60">
-        <f>ROUND(PI()*(64/2)^2 +1.1^2*PI()*(64/2)^2,0)</f>
-        <v>7110</v>
-      </c>
-      <c r="G6" s="60">
+      <c r="A6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="52">
+        <v>64.0</v>
+      </c>
+      <c r="F6" s="52">
+        <v>128.0</v>
+      </c>
+      <c r="G6" s="52">
         <v>400.0</v>
       </c>
-      <c r="H6" s="60">
-        <v>1000.0</v>
-      </c>
-      <c r="I6" s="60">
-        <v>76.0</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="2"/>
-        <v>3416</v>
-      </c>
-      <c r="K6" s="60">
+      <c r="J6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="52">
+        <v>64.0</v>
+      </c>
+      <c r="F7" s="52">
+        <v>128.0</v>
+      </c>
+      <c r="G7" s="52">
+        <v>400.0</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="52">
         <v>4.0</v>
       </c>
-      <c r="L6" s="60">
-        <v>2.4</v>
-      </c>
-      <c r="M6" s="60">
-        <v>32.0</v>
-      </c>
-      <c r="O6" s="60">
-        <v>725.0</v>
-      </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="60">
-        <v>15.0</v>
-      </c>
-      <c r="E7" s="60">
-        <v>3.43</v>
-      </c>
-      <c r="F7" s="60">
-        <f t="shared" ref="F7:F12" si="3">ROUND(PI()*(128/2)^2 +1.1^2*PI()*(128/2)^2,0)</f>
-        <v>28438</v>
-      </c>
-      <c r="G7" s="60">
+      <c r="E8" s="52">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="52">
+        <v>128.0</v>
+      </c>
+      <c r="G8" s="52">
         <v>400.0</v>
       </c>
-      <c r="H7" s="60">
-        <v>525.0</v>
-      </c>
-      <c r="I7" s="60">
-        <v>133.0</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="2"/>
-        <v>5253</v>
-      </c>
-      <c r="K7" s="60">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="52">
         <v>5.0</v>
       </c>
-      <c r="L7" s="60">
-        <v>4.0</v>
-      </c>
-      <c r="M7" s="60">
-        <v>40.0</v>
-      </c>
-      <c r="O7" s="60">
-        <v>600.0</v>
-      </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="60">
-        <v>15.0</v>
-      </c>
-      <c r="E8" s="60">
-        <v>3.43</v>
-      </c>
-      <c r="F8" s="60">
-        <f t="shared" si="3"/>
-        <v>28438</v>
-      </c>
-      <c r="G8" s="60">
+      <c r="D9" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="52">
+        <v>64.0</v>
+      </c>
+      <c r="F9" s="52">
+        <v>128.0</v>
+      </c>
+      <c r="G9" s="52">
         <v>400.0</v>
       </c>
-      <c r="H8" s="60">
-        <v>1030.0</v>
-      </c>
-      <c r="I8" s="60">
-        <v>133.0</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="2"/>
-        <v>13254</v>
-      </c>
-      <c r="K8" s="60">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="52">
         <v>5.0</v>
       </c>
-      <c r="L8" s="60">
+      <c r="D10" s="52">
         <v>3.5</v>
       </c>
-      <c r="M8" s="60">
+      <c r="E10" s="52">
         <v>64.0</v>
       </c>
-      <c r="O8" s="60">
-        <v>600.0</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="60">
-        <v>15.0</v>
-      </c>
-      <c r="E9" s="60">
-        <v>6.88</v>
-      </c>
-      <c r="F9" s="60">
-        <f t="shared" si="3"/>
-        <v>28438</v>
-      </c>
-      <c r="G9" s="60">
+      <c r="F10" s="52">
+        <v>128.0</v>
+      </c>
+      <c r="G10" s="55">
         <v>400.0</v>
       </c>
-      <c r="H9" s="60">
-        <v>2000.0</v>
-      </c>
-      <c r="I9" s="60">
-        <v>133.0</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="2"/>
-        <v>13254</v>
-      </c>
-      <c r="K9" s="60">
-        <v>5.0</v>
-      </c>
-      <c r="L9" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="M9" s="60">
-        <v>64.0</v>
-      </c>
-      <c r="O9" s="60">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="60">
-        <v>8.0</v>
-      </c>
-      <c r="E10" s="60">
-        <v>6.45</v>
-      </c>
-      <c r="F10" s="60">
-        <f t="shared" si="3"/>
-        <v>28438</v>
-      </c>
-      <c r="G10" s="60">
-        <v>400.0</v>
-      </c>
-      <c r="H10" s="60">
-        <v>525.0</v>
-      </c>
-      <c r="I10" s="60">
-        <v>103.0</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="2"/>
-        <v>5253</v>
-      </c>
-      <c r="K10" s="60">
-        <v>5.0</v>
-      </c>
-      <c r="L10" s="60">
-        <v>4.0</v>
-      </c>
-      <c r="M10" s="60">
-        <v>40.0</v>
-      </c>
-      <c r="O10" s="60">
-        <v>1650.0</v>
-      </c>
-      <c r="Q10" s="60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="60">
-        <v>8.0</v>
-      </c>
-      <c r="E11" s="60">
-        <v>6.45</v>
-      </c>
-      <c r="F11" s="60">
-        <f t="shared" si="3"/>
-        <v>28438</v>
-      </c>
-      <c r="G11" s="60">
-        <v>400.0</v>
-      </c>
-      <c r="H11" s="60">
-        <v>1030.0</v>
-      </c>
-      <c r="I11" s="60">
-        <v>103.0</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="2"/>
-        <v>13254</v>
-      </c>
-      <c r="K11" s="60">
-        <v>5.0</v>
-      </c>
-      <c r="L11" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="M11" s="60">
-        <v>64.0</v>
-      </c>
-      <c r="O11" s="60">
-        <v>1650.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="64">
-        <v>8.0</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="64">
-        <v>12.89</v>
-      </c>
-      <c r="F12" s="60">
-        <f t="shared" si="3"/>
-        <v>28438</v>
-      </c>
-      <c r="G12" s="64">
-        <v>400.0</v>
-      </c>
-      <c r="H12" s="60">
-        <v>2000.0</v>
-      </c>
-      <c r="I12" s="60">
-        <v>103.0</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>13254</v>
-      </c>
-      <c r="K12" s="60">
-        <v>5.0</v>
-      </c>
-      <c r="L12" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="M12" s="60">
-        <v>64.0</v>
-      </c>
-      <c r="O12" s="60">
-        <v>1650.0</v>
-      </c>
+      <c r="J10" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -32218,719 +30426,824 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.63"/>
-    <col customWidth="1" min="2" max="2" width="32.63"/>
+    <col customWidth="1" min="1" max="1" width="51.0"/>
+    <col customWidth="1" min="2" max="2" width="37.29"/>
+    <col customWidth="1" min="6" max="6" width="15.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>167</v>
+      <c r="A1" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="69">
+      <c r="A2" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="60">
         <v>466.0</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="52">
         <v>200.0</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="52">
         <v>100.0</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="52">
         <v>100.0</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="52">
         <v>2420.0</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="52">
         <v>600.0</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="52">
         <v>300.0</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="52">
         <v>400.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="69">
+      <c r="A3" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="60">
         <v>4.0</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="52">
         <v>1.0</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="52">
         <v>1.0</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="52">
         <v>1.0</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="52">
         <v>4.0</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="52">
         <v>1.0</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="52">
         <v>1.0</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="52">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="69">
+      <c r="A4" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="60">
         <v>2.0</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="52">
         <v>5.0</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="52">
         <v>10.0</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="52">
         <v>10.0</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="52">
         <v>1.0</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="52">
         <v>2.0</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="52">
         <v>3.0</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="52">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="69">
+      <c r="A5" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="60">
         <v>12.0</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="52">
         <v>10.0</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="52">
         <v>35.0</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="52">
         <v>10.0</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="52">
         <v>9.0</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="52">
         <v>10.0</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="52">
         <v>10.0</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="52">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="69">
+      <c r="A6" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="60">
         <v>80.0</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="52">
         <v>80.0</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="52">
         <v>80.0</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="52">
         <v>80.0</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="52">
         <v>80.0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="52">
         <v>80.0</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="52">
         <v>80.0</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="52">
         <v>80.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="69">
+      <c r="A7" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="60">
         <v>50.0</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="52">
         <v>50.0</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="52">
         <v>50.0</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="52">
         <v>50.0</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="52">
         <v>50.0</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="52">
         <v>50.0</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="52">
         <v>50.0</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="52">
         <v>50.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="69">
+      <c r="A8" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="60">
         <v>0.0</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="52">
         <v>0.0</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="52">
         <v>0.0</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="52">
         <v>0.0</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="52">
         <v>0.0</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="52">
         <v>0.0</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="52">
         <v>0.0</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="52">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="69">
+      <c r="A9" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="60">
         <v>0.0</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="52">
         <v>0.0</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="52">
         <v>1.0</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="52">
         <v>1.0</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="52">
         <v>1.0</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="52">
         <v>1.0</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="52">
         <v>1.0</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="52">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="69">
+      <c r="A10" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="60">
         <v>60.0</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="52">
         <v>60.0</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="52">
         <v>60.0</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="52">
         <v>60.0</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="52">
         <v>60.0</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="52">
         <v>60.0</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="52">
         <v>60.0</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="52">
         <v>60.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="60">
+      <c r="A11" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="52">
         <v>4.0</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="52">
         <v>4.0</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="52">
         <v>4.0</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="52">
         <v>4.0</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="52">
         <v>4.0</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="52">
         <v>4.0</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="52">
         <v>4.0</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="52">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>164</v>
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="69">
+      <c r="A15" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="60">
         <v>466.0</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="52">
         <v>200.0</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="52">
         <v>100.0</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="52">
         <v>100.0</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="52">
         <v>2420.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="69">
+      <c r="A16" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="60">
         <v>4.0</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="52">
         <v>1.0</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="52">
         <v>1.0</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="52">
         <v>1.0</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="52">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="69">
+      <c r="A17" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="60">
         <v>2.0</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="52">
         <v>5.0</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="52">
         <v>10.0</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="52">
         <v>10.0</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="52">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="69">
+      <c r="A18" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="60">
         <v>12.0</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="52">
         <v>10.0</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="52">
         <v>35.0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="52">
         <v>10.0</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="52">
         <v>9.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="69">
+      <c r="A19" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="60">
         <v>80.0</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="52">
         <v>80.0</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="52">
         <v>80.0</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="52">
         <v>80.0</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="52">
         <v>80.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="69">
+      <c r="A20" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="60">
         <v>50.0</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="52">
         <v>50.0</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="52">
         <v>50.0</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="52">
         <v>50.0</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="52">
         <v>50.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="69">
+      <c r="A21" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="60">
         <v>0.0</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="52">
         <v>0.0</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="52">
         <v>0.0</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="52">
         <v>0.0</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="52">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="69">
+      <c r="A22" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="60">
         <v>0.0</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="52">
         <v>0.0</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="52">
         <v>1.0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="52">
         <v>1.0</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="52">
         <v>1.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="69">
+      <c r="A23" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="60">
         <v>60.0</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="52">
         <v>60.0</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="52">
         <v>60.0</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="52">
         <v>60.0</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="52">
         <v>60.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="60">
+      <c r="A24" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="52">
         <v>4.0</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="52">
         <v>4.0</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="52">
         <v>4.0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="52">
         <v>4.0</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="52">
         <v>4.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" s="71"/>
-      <c r="D29" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="65"/>
     </row>
     <row r="30">
-      <c r="C30" s="71"/>
-      <c r="D30" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="J30" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" s="71" t="s">
-        <v>190</v>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="62" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="75">
+      <c r="C31" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="66">
         <v>2.7777777777777777</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="66">
         <v>0.17882689556509299</v>
       </c>
-      <c r="F31" s="75">
+      <c r="F31" s="66">
         <v>0.03324468085106383</v>
       </c>
-      <c r="G31" s="75">
+      <c r="G31" s="66">
         <v>0.19290123456790123</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="66">
         <v>0.021522038567493112</v>
       </c>
-      <c r="I31" s="75">
+      <c r="I31" s="66">
         <v>0.0060444874274661504</v>
       </c>
-      <c r="J31" s="75">
+      <c r="J31" s="66">
         <v>0.14467592592592593</v>
       </c>
-      <c r="K31" s="75">
+      <c r="K31" s="66">
         <v>1.996007984031936</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="75">
+      <c r="C32" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="66">
         <v>15.4</v>
       </c>
-      <c r="E32" s="75">
+      <c r="E32" s="66">
         <v>5.138841201716739</v>
       </c>
-      <c r="F32" s="75">
+      <c r="F32" s="66">
         <v>3.5984374999999993</v>
       </c>
-      <c r="G32" s="75">
+      <c r="G32" s="66">
         <v>6.791666666666666</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="66">
         <v>2.455785123966942</v>
       </c>
-      <c r="I32" s="75">
+      <c r="I32" s="66">
         <v>2.251534090909091</v>
       </c>
-      <c r="J32" s="75">
+      <c r="J32" s="66">
         <v>9.03125</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="66">
         <v>18.73333333333333</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="75">
-        <v>50.0</v>
-      </c>
-      <c r="E33" s="75">
-        <v>26.145922746781117</v>
-      </c>
-      <c r="F33" s="75">
-        <v>30.625</v>
-      </c>
-      <c r="G33" s="75">
-        <v>31.666666666666668</v>
-      </c>
-      <c r="H33" s="75">
-        <v>18.41322314049587</v>
-      </c>
-      <c r="I33" s="75">
-        <v>20.454545454545453</v>
-      </c>
-      <c r="J33" s="75">
-        <v>51.25</v>
-      </c>
-      <c r="K33" s="75">
-        <v>48.333333333333336</v>
-      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="70">
+        <v>200.0</v>
+      </c>
+      <c r="E38" s="70">
+        <v>1865.0</v>
+      </c>
+      <c r="F38" s="70">
+        <v>6400.0</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="70">
+        <v>9680.0</v>
+      </c>
+      <c r="I38" s="70">
+        <v>35200.0</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="71">
+        <f t="shared" ref="D39:K39" si="1">1000/D32</f>
+        <v>64.93506494</v>
+      </c>
+      <c r="E39" s="71">
+        <f t="shared" si="1"/>
+        <v>194.5964004</v>
+      </c>
+      <c r="F39" s="71">
+        <f t="shared" si="1"/>
+        <v>277.8983934</v>
+      </c>
+      <c r="G39" s="71">
+        <f t="shared" si="1"/>
+        <v>147.2392638</v>
+      </c>
+      <c r="H39" s="71">
+        <f t="shared" si="1"/>
+        <v>407.20175</v>
+      </c>
+      <c r="I39" s="71">
+        <f t="shared" si="1"/>
+        <v>444.1416206</v>
+      </c>
+      <c r="J39" s="71">
+        <f t="shared" si="1"/>
+        <v>110.7266436</v>
+      </c>
+      <c r="K39" s="71">
+        <f t="shared" si="1"/>
+        <v>53.38078292</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="H29:K29"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
